--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
@@ -881,7 +881,7 @@
     <t>bottomCenter</t>
   </si>
   <si>
-    <t>Bottom Center</t>
+    <t>Bottom Centre</t>
   </si>
   <si>
     <t>bottomRight</t>
@@ -1862,7 +1862,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2248,9 +2248,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4469,10 +4466,10 @@
       <c r="G29" t="s" s="86">
         <v>310</v>
       </c>
-      <c r="H29" s="129"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="85"/>
       <c r="J29" s="85"/>
-      <c r="K29" t="s" s="130">
+      <c r="K29" t="s" s="129">
         <v>40</v>
       </c>
       <c r="L29" s="17"/>
@@ -4630,28 +4627,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="131" customWidth="1"/>
-    <col min="3" max="3" width="20.3516" style="131" customWidth="1"/>
-    <col min="4" max="4" width="29.3516" style="131" customWidth="1"/>
-    <col min="5" max="10" width="10.6719" style="131" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="131" customWidth="1"/>
+    <col min="1" max="2" width="10.6719" style="130" customWidth="1"/>
+    <col min="3" max="3" width="20.3516" style="130" customWidth="1"/>
+    <col min="4" max="4" width="29.3516" style="130" customWidth="1"/>
+    <col min="5" max="10" width="10.6719" style="130" customWidth="1"/>
+    <col min="11" max="256" width="8.85156" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
         <v>321</v>
       </c>
-      <c r="B1" t="s" s="132">
+      <c r="B1" t="s" s="131">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="133">
+      <c r="C1" t="s" s="132">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="134">
+      <c r="D1" t="s" s="133">
         <v>13</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="17"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -4676,10 +4673,10 @@
       <c r="F2" t="s" s="18">
         <v>324</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -4688,10 +4685,10 @@
       <c r="B3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="137">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="138">
+      <c r="D3" t="s" s="137">
         <v>97</v>
       </c>
       <c r="E3" t="s" s="6">
@@ -4700,23 +4697,23 @@
       <c r="F3" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s" s="37">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="142">
+      <c r="E4" t="s" s="141">
         <v>325</v>
       </c>
       <c r="F4" s="96">
@@ -4846,8 +4843,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="143" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="143" customWidth="1"/>
+    <col min="1" max="16" width="10.6719" style="142" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="142" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -4895,16 +4892,16 @@
       <c r="F2" t="s" s="18">
         <v>331</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -4913,10 +4910,10 @@
       <c r="B3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="137">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="138">
+      <c r="D3" t="s" s="137">
         <v>97</v>
       </c>
       <c r="E3" t="s" s="6">
@@ -4925,29 +4922,29 @@
       <c r="F3" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s" s="37">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="142">
+      <c r="E4" t="s" s="141">
         <v>325</v>
       </c>
       <c r="F4" s="96">
@@ -5119,8 +5116,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="146" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="146" customWidth="1"/>
+    <col min="1" max="16" width="10.6719" style="145" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -5168,16 +5165,16 @@
       <c r="F2" t="s" s="18">
         <v>331</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -5186,10 +5183,10 @@
       <c r="B3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="137">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="138">
+      <c r="D3" t="s" s="137">
         <v>97</v>
       </c>
       <c r="E3" t="s" s="6">
@@ -5198,29 +5195,29 @@
       <c r="F3" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s" s="37">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="142">
+      <c r="E4" t="s" s="141">
         <v>325</v>
       </c>
       <c r="F4" s="96">
@@ -5392,25 +5389,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="10.6719" style="149" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="149" customWidth="1"/>
+    <col min="1" max="10" width="10.6719" style="148" customWidth="1"/>
+    <col min="11" max="256" width="8.85156" style="148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="150">
+      <c r="A1" t="s" s="149">
         <v>333</v>
       </c>
-      <c r="B1" t="s" s="132">
+      <c r="B1" t="s" s="131">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="151">
+      <c r="C1" t="s" s="150">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="152">
+      <c r="D1" t="s" s="151">
         <v>13</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
       <c r="G1" s="17"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -5435,10 +5432,10 @@
       <c r="F2" t="s" s="18">
         <v>324</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -5447,10 +5444,10 @@
       <c r="B3" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="137">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="138">
+      <c r="D3" t="s" s="137">
         <v>97</v>
       </c>
       <c r="E3" t="s" s="6">
@@ -5459,23 +5456,23 @@
       <c r="F3" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s" s="37">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="142">
+      <c r="E4" t="s" s="141">
         <v>325</v>
       </c>
       <c r="F4" s="96">
@@ -5605,8 +5602,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="154" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="154" customWidth="1"/>
+    <col min="1" max="16" width="10.6719" style="153" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="153" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -5642,7 +5639,7 @@
       <c r="B2" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="C2" s="155"/>
+      <c r="C2" s="154"/>
       <c r="D2" t="s" s="18">
         <v>335</v>
       </c>
@@ -5682,32 +5679,32 @@
       <c r="F3" t="s" s="30">
         <v>341</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="123">
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="158">
+      <c r="C4" t="s" s="157">
         <v>342</v>
       </c>
-      <c r="D4" t="s" s="159">
+      <c r="D4" t="s" s="158">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="160">
+      <c r="E4" t="s" s="159">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="160">
+      <c r="F4" t="s" s="159">
         <v>116</v>
       </c>
       <c r="G4" s="17"/>
@@ -5726,16 +5723,16 @@
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="161">
+      <c r="C5" t="s" s="160">
         <v>343</v>
       </c>
-      <c r="D5" t="s" s="162">
+      <c r="D5" t="s" s="161">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="163">
+      <c r="E5" t="s" s="162">
         <v>37</v>
       </c>
-      <c r="F5" t="s" s="163">
+      <c r="F5" t="s" s="162">
         <v>116</v>
       </c>
       <c r="G5" s="17"/>
@@ -5754,16 +5751,16 @@
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="161">
+      <c r="C6" t="s" s="160">
         <v>344</v>
       </c>
-      <c r="D6" t="s" s="162">
+      <c r="D6" t="s" s="161">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="163">
+      <c r="E6" t="s" s="162">
         <v>37</v>
       </c>
-      <c r="F6" t="s" s="163">
+      <c r="F6" t="s" s="162">
         <v>116</v>
       </c>
       <c r="G6" s="17"/>
@@ -5782,16 +5779,16 @@
         <v>42736</v>
       </c>
       <c r="B7" s="119"/>
-      <c r="C7" t="s" s="164">
+      <c r="C7" t="s" s="163">
         <v>345</v>
       </c>
-      <c r="D7" t="s" s="165">
+      <c r="D7" t="s" s="164">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="166">
+      <c r="E7" t="s" s="165">
         <v>37</v>
       </c>
-      <c r="F7" t="s" s="166">
+      <c r="F7" t="s" s="165">
         <v>116</v>
       </c>
       <c r="G7" s="17"/>
@@ -5809,8 +5806,8 @@
       <c r="A8" s="128">
         <v>42736</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" t="s" s="168">
+      <c r="B8" s="166"/>
+      <c r="C8" t="s" s="167">
         <v>346</v>
       </c>
       <c r="D8" t="s" s="13">
@@ -5886,8 +5883,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="15" width="10.6719" style="169" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="169" customWidth="1"/>
+    <col min="1" max="15" width="10.6719" style="168" customWidth="1"/>
+    <col min="16" max="256" width="8.85156" style="168" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -5931,16 +5928,16 @@
       <c r="E2" t="s" s="18">
         <v>350</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -5973,14 +5970,14 @@
       <c r="A4" s="128">
         <v>42736</v>
       </c>
-      <c r="B4" s="170"/>
+      <c r="B4" s="169"/>
       <c r="C4" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="E4" t="s" s="171">
+      <c r="E4" t="s" s="170">
         <v>352</v>
       </c>
       <c r="F4" s="17"/>
@@ -6113,11 +6110,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="10.6719" style="172" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="172" customWidth="1"/>
-    <col min="5" max="5" width="31.1719" style="172" customWidth="1"/>
-    <col min="6" max="15" width="10.6719" style="172" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="172" customWidth="1"/>
+    <col min="1" max="3" width="10.6719" style="171" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="171" customWidth="1"/>
+    <col min="5" max="5" width="31.1719" style="171" customWidth="1"/>
+    <col min="6" max="15" width="10.6719" style="171" customWidth="1"/>
+    <col min="16" max="256" width="8.85156" style="171" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -6208,16 +6205,16 @@
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="173">
+      <c r="C4" t="s" s="172">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="174">
+      <c r="E4" t="s" s="173">
         <v>353</v>
       </c>
-      <c r="F4" t="s" s="171">
+      <c r="F4" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G4" s="17"/>
@@ -6235,16 +6232,16 @@
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="175">
+      <c r="C5" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="43">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="176">
+      <c r="E5" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F5" t="s" s="171">
+      <c r="F5" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G5" s="17"/>
@@ -6262,16 +6259,16 @@
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="175">
+      <c r="C6" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="43">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="176">
+      <c r="E6" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F6" t="s" s="171">
+      <c r="F6" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G6" s="17"/>
@@ -6289,16 +6286,16 @@
         <v>42736</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" t="s" s="175">
+      <c r="C7" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="43">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="176">
+      <c r="E7" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F7" t="s" s="171">
+      <c r="F7" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G7" s="17"/>
@@ -6316,16 +6313,16 @@
         <v>42736</v>
       </c>
       <c r="B8" s="89"/>
-      <c r="C8" t="s" s="175">
+      <c r="C8" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D8" t="s" s="43">
         <v>68</v>
       </c>
-      <c r="E8" t="s" s="176">
+      <c r="E8" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F8" t="s" s="171">
+      <c r="F8" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G8" s="17"/>
@@ -6343,16 +6340,16 @@
         <v>42736</v>
       </c>
       <c r="B9" s="89"/>
-      <c r="C9" t="s" s="175">
+      <c r="C9" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D9" t="s" s="43">
         <v>71</v>
       </c>
-      <c r="E9" t="s" s="176">
+      <c r="E9" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F9" t="s" s="171">
+      <c r="F9" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G9" s="17"/>
@@ -6370,16 +6367,16 @@
         <v>42736</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" t="s" s="175">
+      <c r="C10" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="47">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="176">
+      <c r="E10" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F10" t="s" s="171">
+      <c r="F10" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G10" s="17"/>
@@ -6397,16 +6394,16 @@
         <v>42736</v>
       </c>
       <c r="B11" s="89"/>
-      <c r="C11" t="s" s="175">
+      <c r="C11" t="s" s="174">
         <v>37</v>
       </c>
       <c r="D11" t="s" s="47">
         <v>80</v>
       </c>
-      <c r="E11" t="s" s="176">
+      <c r="E11" t="s" s="175">
         <v>353</v>
       </c>
-      <c r="F11" t="s" s="171">
+      <c r="F11" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G11" s="17"/>
@@ -6427,13 +6424,13 @@
       <c r="C12" t="s" s="116">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="177">
+      <c r="D12" t="s" s="176">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="178">
+      <c r="E12" t="s" s="177">
         <v>353</v>
       </c>
-      <c r="F12" t="s" s="171">
+      <c r="F12" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G12" s="17"/>
@@ -6463,8 +6460,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="15" width="10.6719" style="179" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="179" customWidth="1"/>
+    <col min="1" max="15" width="10.6719" style="178" customWidth="1"/>
+    <col min="16" max="256" width="8.85156" style="178" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -6528,13 +6525,13 @@
       <c r="B3" t="s" s="110">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="180">
+      <c r="C3" t="s" s="179">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="180">
+      <c r="D3" t="s" s="179">
         <v>191</v>
       </c>
-      <c r="E3" t="s" s="180">
+      <c r="E3" t="s" s="179">
         <v>351</v>
       </c>
       <c r="F3" t="s" s="110">
@@ -6551,20 +6548,20 @@
       <c r="O3" s="113"/>
     </row>
     <row r="4" ht="28" customHeight="1">
-      <c r="A4" s="181">
+      <c r="A4" s="180">
         <v>42736</v>
       </c>
       <c r="B4" s="78"/>
-      <c r="C4" t="s" s="160">
+      <c r="C4" t="s" s="159">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="75">
         <v>144</v>
       </c>
-      <c r="E4" t="s" s="182">
+      <c r="E4" t="s" s="181">
         <v>353</v>
       </c>
-      <c r="F4" t="s" s="171">
+      <c r="F4" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G4" s="17"/>
@@ -6578,20 +6575,20 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" ht="28" customHeight="1">
-      <c r="A5" s="183">
+      <c r="A5" s="182">
         <v>42736</v>
       </c>
       <c r="B5" s="83"/>
-      <c r="C5" t="s" s="163">
+      <c r="C5" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="75">
         <v>148</v>
       </c>
-      <c r="E5" t="s" s="184">
+      <c r="E5" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F5" t="s" s="171">
+      <c r="F5" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G5" s="17"/>
@@ -6605,20 +6602,20 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" ht="28" customHeight="1">
-      <c r="A6" s="183">
+      <c r="A6" s="182">
         <v>42736</v>
       </c>
       <c r="B6" s="83"/>
-      <c r="C6" t="s" s="163">
+      <c r="C6" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="75">
         <v>152</v>
       </c>
-      <c r="E6" t="s" s="184">
+      <c r="E6" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F6" t="s" s="171">
+      <c r="F6" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G6" s="17"/>
@@ -6632,20 +6629,20 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" ht="28" customHeight="1">
-      <c r="A7" s="183">
+      <c r="A7" s="182">
         <v>42736</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" t="s" s="163">
+      <c r="C7" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="75">
         <v>156</v>
       </c>
-      <c r="E7" t="s" s="184">
+      <c r="E7" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F7" t="s" s="171">
+      <c r="F7" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G7" s="17"/>
@@ -6659,20 +6656,20 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" ht="28" customHeight="1">
-      <c r="A8" s="183">
+      <c r="A8" s="182">
         <v>42736</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" t="s" s="163">
+      <c r="C8" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D8" t="s" s="75">
         <v>163</v>
       </c>
-      <c r="E8" t="s" s="184">
+      <c r="E8" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F8" t="s" s="171">
+      <c r="F8" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G8" s="17"/>
@@ -6686,20 +6683,20 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" ht="28" customHeight="1">
-      <c r="A9" s="183">
+      <c r="A9" s="182">
         <v>42736</v>
       </c>
       <c r="B9" s="83"/>
-      <c r="C9" t="s" s="163">
+      <c r="C9" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D9" t="s" s="75">
         <v>159</v>
       </c>
-      <c r="E9" t="s" s="184">
+      <c r="E9" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F9" t="s" s="171">
+      <c r="F9" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G9" s="17"/>
@@ -6713,20 +6710,20 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" ht="28" customHeight="1">
-      <c r="A10" s="183">
+      <c r="A10" s="182">
         <v>42736</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" t="s" s="163">
+      <c r="C10" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="75">
         <v>167</v>
       </c>
-      <c r="E10" t="s" s="184">
+      <c r="E10" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F10" t="s" s="171">
+      <c r="F10" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G10" s="17"/>
@@ -6740,20 +6737,20 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" ht="28" customHeight="1">
-      <c r="A11" s="183">
+      <c r="A11" s="182">
         <v>42736</v>
       </c>
       <c r="B11" s="83"/>
-      <c r="C11" t="s" s="163">
+      <c r="C11" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D11" t="s" s="75">
         <v>174</v>
       </c>
-      <c r="E11" t="s" s="184">
+      <c r="E11" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F11" t="s" s="171">
+      <c r="F11" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G11" s="17"/>
@@ -6767,20 +6764,20 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1">
-      <c r="A12" s="183">
+      <c r="A12" s="182">
         <v>42736</v>
       </c>
       <c r="B12" s="83"/>
-      <c r="C12" t="s" s="163">
+      <c r="C12" t="s" s="162">
         <v>37</v>
       </c>
       <c r="D12" t="s" s="75">
         <v>177</v>
       </c>
-      <c r="E12" t="s" s="184">
+      <c r="E12" t="s" s="183">
         <v>353</v>
       </c>
-      <c r="F12" t="s" s="171">
+      <c r="F12" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G12" s="17"/>
@@ -6794,12 +6791,12 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" s="185"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
       <c r="G13" s="17"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -6844,8 +6841,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="189" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="189" customWidth="1"/>
+    <col min="1" max="16" width="10.6719" style="188" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="188" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -6911,13 +6908,13 @@
       <c r="B3" t="s" s="110">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="180">
+      <c r="C3" t="s" s="179">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="180">
+      <c r="D3" t="s" s="179">
         <v>361</v>
       </c>
-      <c r="E3" t="s" s="180">
+      <c r="E3" t="s" s="179">
         <v>351</v>
       </c>
       <c r="F3" t="s" s="110">
@@ -6938,7 +6935,7 @@
       <c r="A4" s="128">
         <v>42736</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="166"/>
       <c r="C4" t="s" s="70">
         <v>37</v>
       </c>
@@ -6948,7 +6945,7 @@
       <c r="E4" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="F4" t="s" s="171">
+      <c r="F4" t="s" s="170">
         <v>352</v>
       </c>
       <c r="G4" s="17"/>
@@ -7314,10 +7311,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="11.5" style="190" customWidth="1"/>
-    <col min="5" max="5" width="37.3516" style="190" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="190" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="190" customWidth="1"/>
+    <col min="1" max="4" width="11.5" style="189" customWidth="1"/>
+    <col min="5" max="5" width="37.3516" style="189" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="189" customWidth="1"/>
+    <col min="8" max="256" width="8.85156" style="189" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -7338,8 +7335,8 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" ht="126" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" t="s" s="18">
         <v>355</v>
       </c>
@@ -7363,16 +7360,16 @@
       <c r="B3" t="s" s="110">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="180">
+      <c r="C3" t="s" s="179">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="180">
+      <c r="D3" t="s" s="179">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="180">
+      <c r="E3" t="s" s="179">
         <v>214</v>
       </c>
-      <c r="F3" t="s" s="180">
+      <c r="F3" t="s" s="179">
         <v>351</v>
       </c>
       <c r="G3" t="s" s="110">
@@ -7383,20 +7380,20 @@
       <c r="A4" s="128">
         <v>42736</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="166"/>
       <c r="C4" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E4" t="s" s="160">
+      <c r="E4" t="s" s="159">
         <v>285</v>
       </c>
       <c r="F4" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G4" t="s" s="171">
+      <c r="G4" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7404,20 +7401,20 @@
       <c r="A5" s="128">
         <v>42736</v>
       </c>
-      <c r="B5" s="167"/>
+      <c r="B5" s="166"/>
       <c r="C5" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E5" t="s" s="163">
+      <c r="E5" t="s" s="162">
         <v>287</v>
       </c>
       <c r="F5" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G5" t="s" s="171">
+      <c r="G5" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7425,20 +7422,20 @@
       <c r="A6" s="128">
         <v>42736</v>
       </c>
-      <c r="B6" s="167"/>
+      <c r="B6" s="166"/>
       <c r="C6" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E6" t="s" s="163">
+      <c r="E6" t="s" s="162">
         <v>273</v>
       </c>
       <c r="F6" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G6" t="s" s="171">
+      <c r="G6" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7446,20 +7443,20 @@
       <c r="A7" s="128">
         <v>42736</v>
       </c>
-      <c r="B7" s="167"/>
+      <c r="B7" s="166"/>
       <c r="C7" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E7" t="s" s="163">
+      <c r="E7" t="s" s="162">
         <v>289</v>
       </c>
       <c r="F7" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G7" t="s" s="171">
+      <c r="G7" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7467,20 +7464,20 @@
       <c r="A8" s="128">
         <v>42736</v>
       </c>
-      <c r="B8" s="167"/>
+      <c r="B8" s="166"/>
       <c r="C8" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D8" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E8" t="s" s="163">
+      <c r="E8" t="s" s="162">
         <v>292</v>
       </c>
       <c r="F8" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G8" t="s" s="171">
+      <c r="G8" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7488,20 +7485,20 @@
       <c r="A9" s="128">
         <v>42736</v>
       </c>
-      <c r="B9" s="167"/>
+      <c r="B9" s="166"/>
       <c r="C9" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D9" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E9" t="s" s="163">
+      <c r="E9" t="s" s="162">
         <v>279</v>
       </c>
       <c r="F9" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G9" t="s" s="171">
+      <c r="G9" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7509,20 +7506,20 @@
       <c r="A10" s="128">
         <v>42736</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="166"/>
       <c r="C10" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="163">
+      <c r="E10" t="s" s="162">
         <v>283</v>
       </c>
       <c r="F10" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G10" t="s" s="171">
+      <c r="G10" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7530,20 +7527,20 @@
       <c r="A11" s="128">
         <v>42736</v>
       </c>
-      <c r="B11" s="167"/>
+      <c r="B11" s="166"/>
       <c r="C11" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D11" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E11" t="s" s="163">
+      <c r="E11" t="s" s="162">
         <v>296</v>
       </c>
       <c r="F11" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G11" t="s" s="171">
+      <c r="G11" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7551,20 +7548,20 @@
       <c r="A12" s="128">
         <v>42736</v>
       </c>
-      <c r="B12" s="167"/>
+      <c r="B12" s="166"/>
       <c r="C12" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D12" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E12" t="s" s="163">
+      <c r="E12" t="s" s="162">
         <v>298</v>
       </c>
       <c r="F12" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G12" t="s" s="171">
+      <c r="G12" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7572,20 +7569,20 @@
       <c r="A13" s="128">
         <v>42736</v>
       </c>
-      <c r="B13" s="167"/>
+      <c r="B13" s="166"/>
       <c r="C13" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D13" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E13" t="s" s="163">
+      <c r="E13" t="s" s="162">
         <v>300</v>
       </c>
       <c r="F13" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G13" t="s" s="171">
+      <c r="G13" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7593,20 +7590,20 @@
       <c r="A14" s="128">
         <v>42736</v>
       </c>
-      <c r="B14" s="167"/>
+      <c r="B14" s="166"/>
       <c r="C14" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D14" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E14" t="s" s="163">
+      <c r="E14" t="s" s="162">
         <v>304</v>
       </c>
       <c r="F14" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G14" t="s" s="171">
+      <c r="G14" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7614,20 +7611,20 @@
       <c r="A15" s="128">
         <v>42736</v>
       </c>
-      <c r="B15" s="167"/>
+      <c r="B15" s="166"/>
       <c r="C15" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D15" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E15" t="s" s="163">
+      <c r="E15" t="s" s="162">
         <v>302</v>
       </c>
       <c r="F15" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G15" t="s" s="171">
+      <c r="G15" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7635,20 +7632,20 @@
       <c r="A16" s="128">
         <v>42736</v>
       </c>
-      <c r="B16" s="167"/>
+      <c r="B16" s="166"/>
       <c r="C16" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D16" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E16" t="s" s="163">
+      <c r="E16" t="s" s="162">
         <v>306</v>
       </c>
       <c r="F16" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G16" t="s" s="171">
+      <c r="G16" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7656,20 +7653,20 @@
       <c r="A17" s="128">
         <v>42736</v>
       </c>
-      <c r="B17" s="167"/>
+      <c r="B17" s="166"/>
       <c r="C17" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D17" t="s" s="70">
         <v>75</v>
       </c>
-      <c r="E17" t="s" s="166">
+      <c r="E17" t="s" s="165">
         <v>308</v>
       </c>
       <c r="F17" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G17" t="s" s="171">
+      <c r="G17" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7677,20 +7674,20 @@
       <c r="A18" s="128">
         <v>42736</v>
       </c>
-      <c r="B18" s="167"/>
+      <c r="B18" s="166"/>
       <c r="C18" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D18" t="s" s="70">
         <v>80</v>
       </c>
-      <c r="E18" t="s" s="160">
+      <c r="E18" t="s" s="159">
         <v>311</v>
       </c>
       <c r="F18" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G18" t="s" s="171">
+      <c r="G18" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7698,20 +7695,20 @@
       <c r="A19" s="128">
         <v>42736</v>
       </c>
-      <c r="B19" s="167"/>
+      <c r="B19" s="166"/>
       <c r="C19" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D19" t="s" s="70">
         <v>80</v>
       </c>
-      <c r="E19" t="s" s="163">
+      <c r="E19" t="s" s="162">
         <v>313</v>
       </c>
       <c r="F19" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G19" t="s" s="171">
+      <c r="G19" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7719,20 +7716,20 @@
       <c r="A20" s="128">
         <v>42736</v>
       </c>
-      <c r="B20" s="167"/>
+      <c r="B20" s="166"/>
       <c r="C20" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D20" t="s" s="70">
         <v>80</v>
       </c>
-      <c r="E20" t="s" s="163">
+      <c r="E20" t="s" s="162">
         <v>315</v>
       </c>
       <c r="F20" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G20" t="s" s="171">
+      <c r="G20" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7740,20 +7737,20 @@
       <c r="A21" s="128">
         <v>42736</v>
       </c>
-      <c r="B21" s="167"/>
+      <c r="B21" s="166"/>
       <c r="C21" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D21" t="s" s="70">
         <v>80</v>
       </c>
-      <c r="E21" t="s" s="163">
+      <c r="E21" t="s" s="162">
         <v>316</v>
       </c>
       <c r="F21" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G21" t="s" s="171">
+      <c r="G21" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -7761,20 +7758,20 @@
       <c r="A22" s="128">
         <v>42736</v>
       </c>
-      <c r="B22" s="167"/>
+      <c r="B22" s="166"/>
       <c r="C22" t="s" s="70">
         <v>37</v>
       </c>
       <c r="D22" t="s" s="70">
         <v>80</v>
       </c>
-      <c r="E22" t="s" s="166">
+      <c r="E22" t="s" s="165">
         <v>319</v>
       </c>
       <c r="F22" t="s" s="54">
         <v>353</v>
       </c>
-      <c r="G22" t="s" s="171">
+      <c r="G22" t="s" s="170">
         <v>352</v>
       </c>
     </row>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" t="s" s="69">
@@ -14639,9 +14636,9 @@
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>

--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
   <si>
     <t>Change History</t>
   </si>
@@ -843,6 +843,12 @@
   </si>
   <si>
     <t>Tests – Config uses an invalid documentSet property</t>
+  </si>
+  <si>
+    <t>sscs-demo-bundle.yaml</t>
+  </si>
+  <si>
+    <t>SSCS Demo Bundle</t>
   </si>
   <si>
     <t>paginationStyle</t>
@@ -1400,7 +1406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1439,28 +1445,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1484,16 +1490,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,26 +1508,26 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1537,26 +1543,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,26 +1576,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,13 +1604,13 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
@@ -1613,7 +1619,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1622,13 +1628,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,22 +1649,22 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,19 +1676,19 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
@@ -1731,13 +1737,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1749,10 +1755,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1764,7 +1770,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
@@ -1776,7 +1782,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
@@ -1797,7 +1803,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1813,7 +1819,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,7 +1832,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,10 +1842,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,10 +1855,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,61 +1875,61 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1935,13 +1941,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1959,10 +1965,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1974,7 +1980,7 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1983,13 +1989,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1998,10 +2004,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2010,16 +2016,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="13" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="13" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2031,31 +2037,31 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2070,16 +2076,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2091,55 +2097,55 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="14" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2151,10 +2157,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2163,13 +2169,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2187,85 +2193,85 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="18" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="19" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2283,10 +2289,10 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2310,16 +2316,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="24" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="22" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="25" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="26" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2334,64 +2340,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2400,31 +2406,31 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2450,8 +2456,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffff3333"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffffc000"/>
@@ -2663,17 +2669,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2701,10 +2707,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2952,12 +2958,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3244,7 +3250,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3272,10 +3278,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3658,7 +3664,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -3687,10 +3693,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="18">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s" s="18">
         <v>46</v>
@@ -3699,16 +3705,16 @@
         <v>47</v>
       </c>
       <c r="G2" t="s" s="18">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H2" t="s" s="18">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s" s="18">
         <v>48</v>
       </c>
       <c r="J2" t="s" s="18">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s" s="18">
         <v>32</v>
@@ -3740,7 +3746,7 @@
         <v>55</v>
       </c>
       <c r="G3" t="s" s="6">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s" s="6">
         <v>99</v>
@@ -3767,17 +3773,17 @@
       </c>
       <c r="B4" s="114"/>
       <c r="C4" t="s" s="115">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s" s="8">
         <v>61</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" t="s" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
@@ -3794,17 +3800,17 @@
       </c>
       <c r="B5" s="89"/>
       <c r="C5" t="s" s="116">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s" s="46">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s" s="46">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s" s="46">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3821,10 +3827,10 @@
       </c>
       <c r="B6" s="89"/>
       <c r="C6" t="s" s="116">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s" s="46">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s" s="46">
         <v>61</v>
@@ -3848,17 +3854,17 @@
       </c>
       <c r="B7" s="119"/>
       <c r="C7" t="s" s="120">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s" s="121">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s" s="121">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" t="s" s="121">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -3875,17 +3881,17 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" t="s" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s" s="8">
         <v>61</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" t="s" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -3902,19 +3908,19 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s" s="46">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s" s="46">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s" s="46">
         <v>78</v>
       </c>
       <c r="F9" t="s" s="46">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s" s="46">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -3931,17 +3937,17 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s" s="121">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s" s="121">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s" s="121">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" t="s" s="121">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3958,17 +3964,17 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" t="s" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s" s="8">
         <v>61</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" t="s" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
@@ -3985,19 +3991,19 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s" s="46">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s" s="46">
         <v>281</v>
-      </c>
-      <c r="D12" t="s" s="46">
-        <v>279</v>
       </c>
       <c r="E12" t="s" s="46">
         <v>78</v>
       </c>
       <c r="F12" t="s" s="46">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G12" t="s" s="46">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4014,19 +4020,19 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s" s="46">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s" s="46">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s" s="46">
         <v>78</v>
       </c>
       <c r="F13" t="s" s="46">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G13" t="s" s="46">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -4043,17 +4049,17 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s" s="121">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D14" t="s" s="121">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s" s="121">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" t="s" s="121">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -4073,14 +4079,14 @@
         <v>79</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s" s="8">
         <v>61</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" t="s" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
@@ -4100,14 +4106,14 @@
         <v>79</v>
       </c>
       <c r="D16" t="s" s="46">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s" s="46">
         <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" t="s" s="46">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4127,7 +4133,7 @@
         <v>79</v>
       </c>
       <c r="D17" t="s" s="46">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s" s="46">
         <v>70</v>
@@ -4154,14 +4160,14 @@
         <v>79</v>
       </c>
       <c r="D18" t="s" s="46">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s" s="46">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" t="s" s="46">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4181,14 +4187,14 @@
         <v>79</v>
       </c>
       <c r="D19" t="s" s="46">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s" s="46">
         <v>292</v>
-      </c>
-      <c r="E19" t="s" s="46">
-        <v>290</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" t="s" s="46">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -4208,16 +4214,16 @@
         <v>79</v>
       </c>
       <c r="D20" t="s" s="46">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s" s="46">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="46">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G20" t="s" s="46">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -4237,16 +4243,16 @@
         <v>79</v>
       </c>
       <c r="D21" t="s" s="46">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E21" t="s" s="46">
         <v>78</v>
       </c>
       <c r="F21" t="s" s="46">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G21" t="s" s="46">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4266,14 +4272,14 @@
         <v>79</v>
       </c>
       <c r="D22" t="s" s="46">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s" s="46">
         <v>61</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" t="s" s="46">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4293,14 +4299,14 @@
         <v>79</v>
       </c>
       <c r="D23" t="s" s="46">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E23" t="s" s="46">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" t="s" s="46">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H23" s="126"/>
       <c r="I23" s="3"/>
@@ -4320,14 +4326,14 @@
         <v>79</v>
       </c>
       <c r="D24" t="s" s="46">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E24" t="s" s="46">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" t="s" s="46">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H24" s="126"/>
       <c r="I24" s="3"/>
@@ -4347,14 +4353,14 @@
         <v>79</v>
       </c>
       <c r="D25" t="s" s="46">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E25" t="s" s="46">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" t="s" s="46">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H25" s="126"/>
       <c r="I25" s="3"/>
@@ -4374,14 +4380,14 @@
         <v>79</v>
       </c>
       <c r="D26" t="s" s="46">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s" s="46">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" t="s" s="46">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H26" s="126"/>
       <c r="I26" s="3"/>
@@ -4401,14 +4407,14 @@
         <v>79</v>
       </c>
       <c r="D27" t="s" s="46">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s" s="46">
         <v>61</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" t="s" s="46">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H27" s="126"/>
       <c r="I27" s="3"/>
@@ -4428,14 +4434,14 @@
         <v>79</v>
       </c>
       <c r="D28" t="s" s="121">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E28" t="s" s="121">
         <v>61</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" t="s" s="121">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H28" s="127"/>
       <c r="I28" s="5"/>
@@ -4455,16 +4461,16 @@
         <v>79</v>
       </c>
       <c r="D29" t="s" s="86">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s" s="86">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="86">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s" s="86">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -4484,14 +4490,14 @@
         <v>82</v>
       </c>
       <c r="D30" t="s" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E30" t="s" s="8">
         <v>61</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" t="s" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
@@ -4511,14 +4517,14 @@
         <v>82</v>
       </c>
       <c r="D31" t="s" s="46">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E31" t="s" s="46">
         <v>61</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" t="s" s="46">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -4538,14 +4544,14 @@
         <v>82</v>
       </c>
       <c r="D32" t="s" s="46">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E32" t="s" s="46">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s" s="46">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -4565,14 +4571,14 @@
         <v>82</v>
       </c>
       <c r="D33" t="s" s="46">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E33" t="s" s="46">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" t="s" s="46">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -4592,14 +4598,14 @@
         <v>82</v>
       </c>
       <c r="D34" t="s" s="121">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E34" t="s" s="121">
         <v>61</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" t="s" s="121">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4636,7 +4642,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="131">
         <v>11</v>
@@ -4665,13 +4671,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="136"/>
@@ -4714,7 +4720,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s" s="141">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="96">
         <v>1</v>
@@ -4736,7 +4742,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s" s="49">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="100">
         <v>2</v>
@@ -4758,7 +4764,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s" s="49">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F6" s="100">
         <v>3</v>
@@ -4849,7 +4855,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -4884,13 +4890,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="136"/>
@@ -4945,7 +4951,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s" s="141">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="96">
         <v>1</v>
@@ -4973,7 +4979,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s" s="49">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="100">
         <v>2</v>
@@ -5001,7 +5007,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s" s="49">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F6" s="100">
         <v>3</v>
@@ -5122,7 +5128,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -5157,13 +5163,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G2" s="146"/>
       <c r="H2" s="147"/>
@@ -5218,7 +5224,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s" s="141">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="96">
         <v>1</v>
@@ -5246,7 +5252,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s" s="49">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="100">
         <v>2</v>
@@ -5274,7 +5280,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s" s="49">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F6" s="100">
         <v>3</v>
@@ -5395,7 +5401,7 @@
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="149">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="131">
         <v>11</v>
@@ -5424,13 +5430,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G2" s="135"/>
       <c r="H2" s="136"/>
@@ -5473,7 +5479,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s" s="141">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="96">
         <v>1</v>
@@ -5495,7 +5501,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s" s="49">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="100">
         <v>2</v>
@@ -5517,7 +5523,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s" s="49">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F6" s="100">
         <v>3</v>
@@ -5608,7 +5614,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -5641,13 +5647,13 @@
       </c>
       <c r="C2" s="154"/>
       <c r="D2" t="s" s="18">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="3"/>
@@ -5668,16 +5674,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="21">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s" s="30">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s" s="30">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s" s="30">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G3" s="155"/>
       <c r="H3" s="156"/>
@@ -5696,7 +5702,7 @@
       </c>
       <c r="B4" s="114"/>
       <c r="C4" t="s" s="157">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s" s="158">
         <v>24</v>
@@ -5724,7 +5730,7 @@
       </c>
       <c r="B5" s="89"/>
       <c r="C5" t="s" s="160">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s" s="161">
         <v>24</v>
@@ -5752,7 +5758,7 @@
       </c>
       <c r="B6" s="89"/>
       <c r="C6" t="s" s="160">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D6" t="s" s="161">
         <v>24</v>
@@ -5780,7 +5786,7 @@
       </c>
       <c r="B7" s="119"/>
       <c r="C7" t="s" s="163">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s" s="164">
         <v>24</v>
@@ -5808,7 +5814,7 @@
       </c>
       <c r="B8" s="166"/>
       <c r="C8" t="s" s="167">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s" s="13">
         <v>24</v>
@@ -5889,7 +5895,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -5920,13 +5926,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="18">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F2" s="146"/>
       <c r="G2" s="147"/>
@@ -5950,10 +5956,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s" s="55">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s" s="6">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="3"/>
@@ -5975,10 +5981,10 @@
         <v>37</v>
       </c>
       <c r="D4" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="3"/>
@@ -6119,7 +6125,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -6150,16 +6156,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="18">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
@@ -6185,10 +6191,10 @@
         <v>97</v>
       </c>
       <c r="E3" t="s" s="55">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s" s="6">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="20"/>
@@ -6212,10 +6218,10 @@
         <v>59</v>
       </c>
       <c r="E4" t="s" s="173">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="3"/>
@@ -6239,10 +6245,10 @@
         <v>62</v>
       </c>
       <c r="E5" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="3"/>
@@ -6266,10 +6272,10 @@
         <v>64</v>
       </c>
       <c r="E6" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="3"/>
@@ -6293,10 +6299,10 @@
         <v>66</v>
       </c>
       <c r="E7" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="3"/>
@@ -6320,10 +6326,10 @@
         <v>68</v>
       </c>
       <c r="E8" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="3"/>
@@ -6347,10 +6353,10 @@
         <v>71</v>
       </c>
       <c r="E9" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="3"/>
@@ -6374,10 +6380,10 @@
         <v>75</v>
       </c>
       <c r="E10" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="3"/>
@@ -6401,10 +6407,10 @@
         <v>80</v>
       </c>
       <c r="E11" t="s" s="175">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="3"/>
@@ -6428,10 +6434,10 @@
         <v>83</v>
       </c>
       <c r="E12" t="s" s="177">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="3"/>
@@ -6466,7 +6472,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -6497,16 +6503,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="18">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
@@ -6532,10 +6538,10 @@
         <v>191</v>
       </c>
       <c r="E3" t="s" s="179">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s" s="110">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" s="112"/>
       <c r="H3" s="29"/>
@@ -6559,10 +6565,10 @@
         <v>144</v>
       </c>
       <c r="E4" t="s" s="181">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="3"/>
@@ -6586,10 +6592,10 @@
         <v>148</v>
       </c>
       <c r="E5" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="3"/>
@@ -6613,10 +6619,10 @@
         <v>152</v>
       </c>
       <c r="E6" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="3"/>
@@ -6640,10 +6646,10 @@
         <v>156</v>
       </c>
       <c r="E7" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="3"/>
@@ -6667,10 +6673,10 @@
         <v>163</v>
       </c>
       <c r="E8" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="3"/>
@@ -6694,10 +6700,10 @@
         <v>159</v>
       </c>
       <c r="E9" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="3"/>
@@ -6721,10 +6727,10 @@
         <v>167</v>
       </c>
       <c r="E10" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="3"/>
@@ -6748,10 +6754,10 @@
         <v>174</v>
       </c>
       <c r="E11" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="3"/>
@@ -6775,10 +6781,10 @@
         <v>177</v>
       </c>
       <c r="E12" t="s" s="183">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="3"/>
@@ -6847,7 +6853,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -6879,16 +6885,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="18">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
@@ -6912,13 +6918,13 @@
         <v>51</v>
       </c>
       <c r="D3" t="s" s="179">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s" s="179">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s" s="110">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G3" s="112"/>
       <c r="H3" s="113"/>
@@ -6943,10 +6949,10 @@
         <v>116</v>
       </c>
       <c r="E4" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="3"/>
@@ -7319,7 +7325,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="12">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s" s="13">
         <v>11</v>
@@ -7338,19 +7344,19 @@
       <c r="A2" s="154"/>
       <c r="B2" s="154"/>
       <c r="C2" t="s" s="18">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s" s="18">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s" s="18">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s" s="18">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s" s="18">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
@@ -7370,10 +7376,10 @@
         <v>214</v>
       </c>
       <c r="F3" t="s" s="179">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s" s="110">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" ht="28" customHeight="1">
@@ -7388,13 +7394,13 @@
         <v>75</v>
       </c>
       <c r="E4" t="s" s="159">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1">
@@ -7409,13 +7415,13 @@
         <v>75</v>
       </c>
       <c r="E5" t="s" s="162">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1">
@@ -7430,13 +7436,13 @@
         <v>75</v>
       </c>
       <c r="E6" t="s" s="162">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1">
@@ -7451,13 +7457,13 @@
         <v>75</v>
       </c>
       <c r="E7" t="s" s="162">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G7" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1">
@@ -7472,13 +7478,13 @@
         <v>75</v>
       </c>
       <c r="E8" t="s" s="162">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1">
@@ -7493,13 +7499,13 @@
         <v>75</v>
       </c>
       <c r="E9" t="s" s="162">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G9" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1">
@@ -7514,13 +7520,13 @@
         <v>75</v>
       </c>
       <c r="E10" t="s" s="162">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G10" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1">
@@ -7535,13 +7541,13 @@
         <v>75</v>
       </c>
       <c r="E11" t="s" s="162">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G11" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1">
@@ -7556,13 +7562,13 @@
         <v>75</v>
       </c>
       <c r="E12" t="s" s="162">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G12" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1">
@@ -7577,13 +7583,13 @@
         <v>75</v>
       </c>
       <c r="E13" t="s" s="162">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G13" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1">
@@ -7598,13 +7604,13 @@
         <v>75</v>
       </c>
       <c r="E14" t="s" s="162">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G14" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1">
@@ -7619,13 +7625,13 @@
         <v>75</v>
       </c>
       <c r="E15" t="s" s="162">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G15" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" ht="28" customHeight="1">
@@ -7640,13 +7646,13 @@
         <v>75</v>
       </c>
       <c r="E16" t="s" s="162">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G16" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" ht="28" customHeight="1">
@@ -7661,13 +7667,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s" s="165">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G17" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" ht="28" customHeight="1">
@@ -7682,13 +7688,13 @@
         <v>80</v>
       </c>
       <c r="E18" t="s" s="159">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F18" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G18" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" ht="28" customHeight="1">
@@ -7703,13 +7709,13 @@
         <v>80</v>
       </c>
       <c r="E19" t="s" s="162">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G19" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" ht="28" customHeight="1">
@@ -7724,13 +7730,13 @@
         <v>80</v>
       </c>
       <c r="E20" t="s" s="162">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G20" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" ht="28" customHeight="1">
@@ -7745,13 +7751,13 @@
         <v>80</v>
       </c>
       <c r="E21" t="s" s="162">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F21" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G21" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" ht="28" customHeight="1">
@@ -7766,13 +7772,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s" s="165">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s" s="54">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G22" t="s" s="170">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -12712,7 +12718,7 @@
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" t="s" s="69">
@@ -14039,7 +14045,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -14469,15 +14475,15 @@
       <c r="A18" s="41">
         <v>42736</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" t="s" s="8">
+      <c r="B18" s="89"/>
+      <c r="C18" t="s" s="70">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s" s="116">
         <v>245</v>
       </c>
-      <c r="D18" t="s" s="46">
+      <c r="E18" t="s" s="46">
         <v>246</v>
-      </c>
-      <c r="E18" t="s" s="46">
-        <v>247</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -14494,8 +14500,8 @@
         <v>42736</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" t="s" s="46">
-        <v>245</v>
+      <c r="C19" t="s" s="8">
+        <v>247</v>
       </c>
       <c r="D19" t="s" s="46">
         <v>248</v>
@@ -14519,7 +14525,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s" s="46">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s" s="46">
         <v>250</v>
@@ -14543,7 +14549,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s" s="46">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s" s="46">
         <v>252</v>
@@ -14567,7 +14573,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s" s="46">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s" s="46">
         <v>254</v>
@@ -14591,7 +14597,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s" s="46">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s" s="46">
         <v>256</v>
@@ -14615,7 +14621,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s" s="46">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s" s="46">
         <v>258</v>
@@ -14634,11 +14640,19 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="41"/>
+      <c r="A25" s="41">
+        <v>42736</v>
+      </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="C25" t="s" s="46">
+        <v>247</v>
+      </c>
+      <c r="D25" t="s" s="46">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s" s="46">
+        <v>261</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -14649,6 +14663,22 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
+    <row r="26" ht="13.65" customHeight="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pawel/workspace/rpa-em-ccd-orchestrator/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogeshhullatti/Documents/Solirius/rpa-em-ccd-orchestrator/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E0DF0-C467-E040-AC88-2029E9F5E4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6946A-13F3-8748-9A2F-EE768F3ADCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="31940" windowHeight="14640" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="31940" windowHeight="14640" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId19"/>
     <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="350">
   <si>
     <t>Change History</t>
   </si>
@@ -967,9 +967,6 @@
     <t>documentName</t>
   </si>
   <si>
-    <t>Document name</t>
-  </si>
-  <si>
     <t>documentType</t>
   </si>
   <si>
@@ -1166,6 +1163,12 @@
   </si>
   <si>
     <t>http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/new-bundle</t>
+  </si>
+  <si>
+    <t>Page Number Format</t>
+  </si>
+  <si>
+    <t>pageNumberFormat</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1605,13 +1608,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1887,6 +1965,13 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2331,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2775,7 +2860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="88">
         <v>42736</v>
       </c>
@@ -2795,7 +2880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="88">
         <v>42736</v>
       </c>
@@ -2819,7 +2904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="88">
         <v>42736</v>
       </c>
@@ -2843,7 +2928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="88">
         <v>42736</v>
       </c>
@@ -2869,7 +2954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="88">
         <v>42736</v>
       </c>
@@ -2895,7 +2980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="88">
         <v>42736</v>
       </c>
@@ -2915,7 +3000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="88">
         <v>42736</v>
       </c>
@@ -2939,7 +3024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="88">
         <v>42736</v>
       </c>
@@ -2947,7 +3032,7 @@
         <v>76</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="81" t="s">
         <v>269</v>
@@ -2963,7 +3048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="88">
         <v>42736</v>
       </c>
@@ -2987,7 +3072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="88">
         <v>42736</v>
       </c>
@@ -3011,7 +3096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="88">
         <v>42736</v>
       </c>
@@ -3019,14 +3104,14 @@
         <v>76</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="81"/>
       <c r="G27" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="91"/>
       <c r="I27" s="81"/>
@@ -3035,7 +3120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="89">
         <v>42736</v>
       </c>
@@ -3060,32 +3145,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="86">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="78" t="s">
+    <row r="29" spans="1:13" s="161" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="79" t="s">
+      <c r="F29" s="157" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" s="157" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="158" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="159"/>
+      <c r="M29" s="160"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="88">
         <v>42736</v>
       </c>
@@ -3093,14 +3182,14 @@
         <v>79</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="81" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -3109,7 +3198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="88">
         <v>42736</v>
       </c>
@@ -3117,7 +3206,7 @@
         <v>79</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="81" t="s">
         <v>254</v>
@@ -3133,7 +3222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="88">
         <v>42736</v>
       </c>
@@ -3141,14 +3230,14 @@
         <v>79</v>
       </c>
       <c r="D32" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="81" t="s">
         <v>291</v>
-      </c>
-      <c r="E32" s="81" t="s">
-        <v>292</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
@@ -3166,14 +3255,14 @@
         <v>79</v>
       </c>
       <c r="D33" s="84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E33" s="84" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H33" s="90"/>
       <c r="I33" s="90"/>
@@ -3206,7 +3295,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>11</v>
@@ -3231,13 +3320,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3274,13 +3363,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3291,13 +3380,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3308,13 +3397,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3325,7 +3414,7 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>63</v>
@@ -3356,7 +3445,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3385,13 +3474,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3440,13 +3529,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3457,13 +3546,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3474,13 +3563,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3491,7 +3580,7 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>63</v>
@@ -3522,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3551,13 +3640,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
@@ -3606,13 +3695,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3623,13 +3712,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3640,13 +3729,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3657,7 +3746,7 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>63</v>
@@ -3690,7 +3779,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="105" t="s">
         <v>11</v>
@@ -3715,13 +3804,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3758,13 +3847,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3775,13 +3864,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3792,13 +3881,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3809,7 +3898,7 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>63</v>
@@ -3842,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3875,13 +3964,13 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -3892,16 +3981,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="F3" s="53" t="s">
         <v>315</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>316</v>
       </c>
       <c r="G3" s="109"/>
       <c r="H3" s="109"/>
@@ -3920,13 +4009,13 @@
       </c>
       <c r="B4" s="111"/>
       <c r="C4" s="112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>113</v>
@@ -3938,13 +4027,13 @@
       </c>
       <c r="B5" s="116"/>
       <c r="C5" s="117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="119" t="s">
         <v>113</v>
@@ -3956,13 +4045,13 @@
       </c>
       <c r="B6" s="116"/>
       <c r="C6" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D6" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="119" t="s">
         <v>113</v>
@@ -3974,13 +4063,13 @@
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="124" t="s">
         <v>113</v>
@@ -3992,13 +4081,13 @@
       </c>
       <c r="B8" s="121"/>
       <c r="C8" s="122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D8" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>113</v>
@@ -4025,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4051,13 +4140,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -4081,10 +4170,10 @@
         <v>48</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4093,13 +4182,13 @@
       </c>
       <c r="B4" s="126"/>
       <c r="C4" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4151,16 +4240,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>331</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -4186,10 +4275,10 @@
         <v>94</v>
       </c>
       <c r="E3" s="131" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="130" t="s">
         <v>326</v>
-      </c>
-      <c r="F3" s="130" t="s">
-        <v>327</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="14"/>
@@ -4207,16 +4296,16 @@
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4225,16 +4314,16 @@
       </c>
       <c r="B5" s="93"/>
       <c r="C5" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="134" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4243,16 +4332,16 @@
       </c>
       <c r="B6" s="93"/>
       <c r="C6" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="134" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4261,16 +4350,16 @@
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="134" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4279,16 +4368,16 @@
       </c>
       <c r="B8" s="93"/>
       <c r="C8" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="134" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4297,16 +4386,16 @@
       </c>
       <c r="B9" s="93"/>
       <c r="C9" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="134" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4315,16 +4404,16 @@
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4333,16 +4422,16 @@
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="136" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4351,16 +4440,16 @@
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +4473,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4409,16 +4498,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -4444,10 +4533,10 @@
         <v>185</v>
       </c>
       <c r="E3" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="73" t="s">
         <v>326</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>327</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="29"/>
@@ -4465,16 +4554,16 @@
       </c>
       <c r="B4" s="139"/>
       <c r="C4" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4483,16 +4572,16 @@
       </c>
       <c r="B5" s="142"/>
       <c r="C5" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>145</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4501,16 +4590,16 @@
       </c>
       <c r="B6" s="142"/>
       <c r="C6" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4519,16 +4608,16 @@
       </c>
       <c r="B7" s="142"/>
       <c r="C7" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>152</v>
       </c>
       <c r="E7" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4537,16 +4626,16 @@
       </c>
       <c r="B8" s="142"/>
       <c r="C8" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>159</v>
       </c>
       <c r="E8" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4555,16 +4644,16 @@
       </c>
       <c r="B9" s="142"/>
       <c r="C9" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4573,16 +4662,16 @@
       </c>
       <c r="B10" s="142"/>
       <c r="C10" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>163</v>
       </c>
       <c r="E10" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4591,16 +4680,16 @@
       </c>
       <c r="B11" s="142"/>
       <c r="C11" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>170</v>
       </c>
       <c r="E11" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4609,16 +4698,16 @@
       </c>
       <c r="B12" s="142"/>
       <c r="C12" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -4653,7 +4742,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="148" t="s">
         <v>11</v>
@@ -4679,16 +4768,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -4712,13 +4801,13 @@
         <v>48</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="153" t="s">
         <v>326</v>
-      </c>
-      <c r="F3" s="153" t="s">
-        <v>327</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
@@ -4737,16 +4826,16 @@
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="124" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="148" t="s">
         <v>11</v>
@@ -4897,19 +4986,19 @@
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="152" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="152" t="s">
-        <v>339</v>
-      </c>
       <c r="F2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4929,10 +5018,10 @@
         <v>208</v>
       </c>
       <c r="F3" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="153" t="s">
         <v>326</v>
-      </c>
-      <c r="G3" s="153" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4941,7 +5030,7 @@
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="124" t="s">
         <v>72</v>
@@ -4950,10 +5039,10 @@
         <v>264</v>
       </c>
       <c r="F4" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4962,7 +5051,7 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="124" t="s">
         <v>72</v>
@@ -4971,10 +5060,10 @@
         <v>266</v>
       </c>
       <c r="F5" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4983,7 +5072,7 @@
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="124" t="s">
         <v>72</v>
@@ -4992,10 +5081,10 @@
         <v>252</v>
       </c>
       <c r="F6" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5004,7 +5093,7 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="124" t="s">
         <v>72</v>
@@ -5013,10 +5102,10 @@
         <v>268</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5025,7 +5114,7 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="124" t="s">
         <v>72</v>
@@ -5034,10 +5123,10 @@
         <v>271</v>
       </c>
       <c r="F8" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5046,7 +5135,7 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="124" t="s">
         <v>72</v>
@@ -5055,10 +5144,10 @@
         <v>258</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5067,7 +5156,7 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="124" t="s">
         <v>72</v>
@@ -5076,10 +5165,10 @@
         <v>262</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5088,7 +5177,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="124" t="s">
         <v>72</v>
@@ -5097,10 +5186,10 @@
         <v>275</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5109,7 +5198,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="124" t="s">
         <v>72</v>
@@ -5118,10 +5207,10 @@
         <v>277</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5130,19 +5219,19 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13" s="124" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5151,7 +5240,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="124" t="s">
         <v>72</v>
@@ -5160,10 +5249,10 @@
         <v>282</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5172,7 +5261,7 @@
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D15" s="124" t="s">
         <v>72</v>
@@ -5181,10 +5270,10 @@
         <v>280</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5193,19 +5282,19 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="124" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F16" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5214,7 +5303,7 @@
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="124" t="s">
         <v>72</v>
@@ -5223,10 +5312,10 @@
         <v>284</v>
       </c>
       <c r="F17" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5235,7 +5324,7 @@
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="124" t="s">
         <v>77</v>
@@ -5244,10 +5333,10 @@
         <v>286</v>
       </c>
       <c r="F18" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5256,19 +5345,19 @@
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="124" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G19" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5277,19 +5366,19 @@
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D20" s="124" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5298,19 +5387,19 @@
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D21" s="124" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G21" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5319,19 +5408,19 @@
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" s="124" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5463,13 +5552,13 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>24</v>
@@ -5607,7 +5696,7 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
@@ -5631,7 +5720,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>59</v>
@@ -5655,7 +5744,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>61</v>
@@ -5679,7 +5768,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>63</v>
@@ -5703,7 +5792,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>65</v>
@@ -5726,7 +5815,7 @@
         <v>42736</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>68</v>
@@ -6360,7 +6449,7 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>72</v>
@@ -6388,7 +6477,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>77</v>
@@ -6414,7 +6503,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>80</v>
@@ -6568,7 +6657,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>98</v>
@@ -6594,7 +6683,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>98</v>
@@ -6620,7 +6709,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>98</v>
@@ -6646,7 +6735,7 @@
         <v>42736</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>98</v>
@@ -6673,7 +6762,7 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>98</v>
@@ -6700,7 +6789,7 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>98</v>
@@ -6727,7 +6816,7 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>98</v>
@@ -6753,7 +6842,7 @@
         <v>42736</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
         <v>98</v>
@@ -6779,7 +6868,7 @@
         <v>42736</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
@@ -6917,7 +7006,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>113</v>
@@ -6942,7 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -7116,7 +7205,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>141</v>
@@ -7151,7 +7240,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>145</v>
@@ -7188,7 +7277,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>149</v>
@@ -7209,7 +7298,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -7228,7 +7317,7 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>152</v>
@@ -7265,7 +7354,7 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>155</v>
@@ -7306,7 +7395,7 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>159</v>
@@ -7347,7 +7436,7 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>163</v>
@@ -7384,7 +7473,7 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>166</v>
@@ -7427,7 +7516,7 @@
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>170</v>
@@ -7464,13 +7553,13 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>342</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>172</v>
@@ -7662,7 +7751,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>141</v>
@@ -7699,7 +7788,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="68" t="s">
         <v>141</v>
@@ -7736,7 +7825,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>141</v>
@@ -7773,7 +7862,7 @@
         <v>42736</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>141</v>
@@ -7810,7 +7899,7 @@
         <v>42736</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>141</v>
@@ -7847,7 +7936,7 @@
         <v>42736</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>141</v>
@@ -7884,7 +7973,7 @@
         <v>42736</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="63" t="s">
         <v>145</v>
@@ -7919,7 +8008,7 @@
         <v>42736</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>145</v>
@@ -7954,7 +8043,7 @@
         <v>42736</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="68" t="s">
         <v>145</v>
@@ -7989,7 +8078,7 @@
         <v>42736</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>145</v>
@@ -8024,7 +8113,7 @@
         <v>42736</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>145</v>
@@ -8059,7 +8148,7 @@
         <v>42736</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D15" s="70" t="s">
         <v>145</v>
@@ -8094,7 +8183,7 @@
         <v>42736</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>149</v>
@@ -8129,7 +8218,7 @@
         <v>42736</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="70" t="s">
         <v>152</v>
@@ -8164,7 +8253,7 @@
         <v>42736</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>159</v>
@@ -8199,7 +8288,7 @@
         <v>42736</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="56" t="s">
         <v>155</v>
@@ -8234,7 +8323,7 @@
         <v>42736</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>163</v>
@@ -8269,7 +8358,7 @@
         <v>42736</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>170</v>

--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogeshhullatti/Documents/Solirius/rpa-em-ccd-orchestrator/src/aat/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A04FC-2791-7F45-B30D-89A7CA2883CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="32060" windowHeight="17840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Change History" sheetId="1" r:id="rId4"/>
-    <sheet name="Jurisdiction" sheetId="2" r:id="rId5"/>
-    <sheet name="CaseType" sheetId="3" r:id="rId6"/>
-    <sheet name="CaseField" sheetId="4" r:id="rId7"/>
-    <sheet name="CaseTypeTab" sheetId="5" r:id="rId8"/>
-    <sheet name="State" sheetId="6" r:id="rId9"/>
-    <sheet name="CaseEvent" sheetId="7" r:id="rId10"/>
-    <sheet name="CaseEventToFields" sheetId="8" r:id="rId11"/>
-    <sheet name="FixedLists" sheetId="9" r:id="rId12"/>
-    <sheet name="ComplexTypes" sheetId="10" r:id="rId13"/>
-    <sheet name="SearchInputFields" sheetId="11" r:id="rId14"/>
-    <sheet name="SearchResultFields" sheetId="12" r:id="rId15"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId16"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId17"/>
-    <sheet name="UserProfile" sheetId="15" r:id="rId18"/>
-    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId19"/>
-    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId20"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId21"/>
-    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId22"/>
-    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId23"/>
+    <sheet name="Change History" sheetId="1" r:id="rId1"/>
+    <sheet name="Jurisdiction" sheetId="2" r:id="rId2"/>
+    <sheet name="CaseType" sheetId="3" r:id="rId3"/>
+    <sheet name="CaseField" sheetId="4" r:id="rId4"/>
+    <sheet name="CaseTypeTab" sheetId="5" r:id="rId5"/>
+    <sheet name="State" sheetId="6" r:id="rId6"/>
+    <sheet name="CaseEvent" sheetId="7" r:id="rId7"/>
+    <sheet name="CaseEventToFields" sheetId="8" r:id="rId8"/>
+    <sheet name="FixedLists" sheetId="9" r:id="rId9"/>
+    <sheet name="ComplexTypes" sheetId="10" r:id="rId10"/>
+    <sheet name="SearchInputFields" sheetId="11" r:id="rId11"/>
+    <sheet name="SearchResultFields" sheetId="12" r:id="rId12"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId13"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId14"/>
+    <sheet name="UserProfile" sheetId="15" r:id="rId15"/>
+    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId16"/>
+    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId17"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId18"/>
+    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId19"/>
+    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId20"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="352">
   <si>
     <t>Change History</t>
   </si>
@@ -542,10 +551,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/new-bundle</t>
     </r>
@@ -571,10 +581,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/stitch-ccd-bundles</t>
     </r>
@@ -591,10 +602,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/clone-ccd-bundles</t>
     </r>
@@ -1190,169 +1202,183 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
-    <numFmt numFmtId="60" formatCode="d/m/yy"/>
-    <numFmt numFmtId="61" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="17"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="20"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="21"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="24"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="22"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="24"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1389,8 +1415,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2057,637 +2089,395 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="215">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="208">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2696,38 +2486,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff3333"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffc000"/>
-      <rgbColor rgb="ff984807"/>
-      <rgbColor rgb="ffffff70"/>
-      <rgbColor rgb="ff9eff94"/>
-      <rgbColor rgb="ffce181e"/>
-      <rgbColor rgb="ffc4e5ff"/>
-      <rgbColor rgb="ffc2e0ae"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff800000"/>
-      <rgbColor rgb="ff000080"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FF984807"/>
+      <rgbColor rgb="FFFFFF70"/>
+      <rgbColor rgb="FF9EFF94"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FFC4E5FF"/>
+      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2929,7 +2766,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2948,7 +2785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2978,7 +2815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3004,7 +2841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3030,7 +2867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3056,7 +2893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3082,7 +2919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3108,7 +2945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3134,7 +2971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3160,7 +2997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3186,7 +3023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3199,9 +3036,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3218,7 +3061,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3237,7 +3080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3263,7 +3106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3289,7 +3132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3315,7 +3158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3341,7 +3184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3367,7 +3210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3393,7 +3236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3419,7 +3262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3445,7 +3288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3471,7 +3314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3484,9 +3327,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3500,7 +3349,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3519,7 +3368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3549,7 +3398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3575,7 +3424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3601,7 +3450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3627,7 +3476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3653,7 +3502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3679,7 +3528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3705,7 +3554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3731,7 +3580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3757,7 +3606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3770,30 +3619,37 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="10.6719" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -3801,83 +3657,83 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>43481</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3885,8 +3741,8 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3894,35 +3750,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="FB1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="117" customWidth="1"/>
-    <col min="3" max="3" width="32.3516" style="117" customWidth="1"/>
-    <col min="4" max="4" width="37.6719" style="117" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="117" customWidth="1"/>
-    <col min="6" max="6" width="19.1719" style="117" customWidth="1"/>
-    <col min="7" max="7" width="30.6719" style="117" customWidth="1"/>
-    <col min="8" max="8" width="9.35156" style="117" customWidth="1"/>
-    <col min="9" max="13" width="10.6719" style="117" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="117" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="117" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="117" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="117" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="117" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="117" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="117" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="117" customWidth="1"/>
+    <col min="9" max="13" width="10.6640625" style="117" customWidth="1"/>
+    <col min="14" max="256" width="8.83203125" style="117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -3935,942 +3793,942 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" ht="87.5" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:13" ht="87.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="I2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s" s="18">
+      <c r="J2" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s" s="18">
+      <c r="L2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s" s="18">
+      <c r="M2" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="J3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s" s="6">
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s" s="6">
+      <c r="L3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="s" s="6">
+      <c r="M3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="115">
+      <c r="C4" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>254</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
-      <c r="K4" t="s" s="69">
+      <c r="K4" s="69" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="72"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="116">
+      <c r="C5" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="D5" t="s" s="46">
+      <c r="D5" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="E5" t="s" s="46">
+      <c r="E5" s="46" t="s">
         <v>256</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" t="s" s="46">
+      <c r="G5" s="46" t="s">
         <v>257</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" t="s" s="81">
+      <c r="K5" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="116">
+      <c r="C6" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="D6" t="s" s="46">
+      <c r="D6" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E6" t="s" s="46">
+      <c r="E6" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" t="s" s="46">
+      <c r="G6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" t="s" s="81">
+      <c r="K6" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="118">
         <v>42736</v>
       </c>
       <c r="B7" s="119"/>
-      <c r="C7" t="s" s="120">
+      <c r="C7" s="120" t="s">
         <v>252</v>
       </c>
-      <c r="D7" t="s" s="121">
+      <c r="D7" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="E7" t="s" s="121">
+      <c r="E7" s="121" t="s">
         <v>260</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" t="s" s="121">
+      <c r="G7" s="121" t="s">
         <v>261</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" t="s" s="122">
+      <c r="K7" s="122" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="123">
         <v>42736</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="D8" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E8" t="s" s="8">
+      <c r="E8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="G8" t="s" s="8">
+      <c r="G8" s="8" t="s">
         <v>263</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
-      <c r="K8" t="s" s="69">
+      <c r="K8" s="69" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="124">
         <v>42736</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="46">
+      <c r="C9" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D9" t="s" s="46">
+      <c r="D9" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="E9" t="s" s="46">
+      <c r="E9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F9" t="s" s="46">
+      <c r="F9" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="G9" t="s" s="46">
+      <c r="G9" s="46" t="s">
         <v>265</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" t="s" s="81">
+      <c r="K9" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="125">
         <v>42736</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" t="s" s="121">
+      <c r="C10" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="D10" t="s" s="121">
+      <c r="D10" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="E10" t="s" s="121">
+      <c r="E10" s="121" t="s">
         <v>256</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" t="s" s="121">
+      <c r="G10" s="121" t="s">
         <v>257</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" t="s" s="122">
+      <c r="K10" s="122" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="123">
         <v>42736</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D11" t="s" s="8">
+      <c r="D11" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E11" t="s" s="8">
+      <c r="E11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" t="s" s="8">
+      <c r="G11" s="8" t="s">
         <v>267</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
-      <c r="K11" t="s" s="69">
+      <c r="K11" s="69" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="124">
         <v>42736</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" t="s" s="46">
+      <c r="C12" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D12" t="s" s="46">
+      <c r="D12" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="E12" t="s" s="46">
+      <c r="E12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s" s="46">
+      <c r="F12" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="G12" t="s" s="46">
+      <c r="G12" s="46" t="s">
         <v>265</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" t="s" s="81">
+      <c r="K12" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="124">
         <v>42736</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" t="s" s="46">
+      <c r="C13" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D13" t="s" s="46">
+      <c r="D13" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E13" t="s" s="46">
+      <c r="E13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s" s="46">
+      <c r="F13" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="G13" t="s" s="46">
+      <c r="G13" s="46" t="s">
         <v>269</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" t="s" s="81">
+      <c r="K13" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="125">
         <v>42736</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" t="s" s="121">
+      <c r="C14" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="D14" t="s" s="121">
+      <c r="D14" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="E14" t="s" s="121">
+      <c r="E14" s="121" t="s">
         <v>256</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" t="s" s="121">
+      <c r="G14" s="121" t="s">
         <v>257</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" t="s" s="122">
+      <c r="K14" s="122" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
+    <row r="15" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="123">
         <v>42736</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s" s="8">
+      <c r="D15" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E15" t="s" s="8">
+      <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" t="s" s="8">
+      <c r="G15" s="8" t="s">
         <v>271</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
-      <c r="K15" t="s" s="69">
+      <c r="K15" s="69" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
+    <row r="16" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="124">
         <v>42736</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" t="s" s="46">
+      <c r="C16" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s" s="46">
+      <c r="D16" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E16" t="s" s="46">
+      <c r="E16" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" t="s" s="46">
+      <c r="G16" s="46" t="s">
         <v>273</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" t="s" s="81">
+      <c r="K16" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="124">
         <v>42736</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" t="s" s="46">
+      <c r="C17" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s" s="46">
+      <c r="D17" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E17" t="s" s="46">
+      <c r="E17" s="46" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" t="s" s="46">
+      <c r="G17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" t="s" s="81">
+      <c r="K17" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="124">
         <v>42736</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" t="s" s="46">
+      <c r="C18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s" s="46">
+      <c r="D18" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="E18" t="s" s="46">
+      <c r="E18" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" t="s" s="46">
+      <c r="G18" s="46" t="s">
         <v>276</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" t="s" s="81">
+      <c r="K18" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
+    <row r="19" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="124">
         <v>42736</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" t="s" s="46">
+      <c r="C19" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s" s="46">
+      <c r="D19" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E19" t="s" s="46">
+      <c r="E19" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" t="s" s="46">
+      <c r="G19" s="46" t="s">
         <v>278</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" t="s" s="81">
+      <c r="K19" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
+    <row r="20" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="124">
         <v>42736</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" t="s" s="46">
+      <c r="C20" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s" s="46">
+      <c r="D20" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="E20" t="s" s="46">
+      <c r="E20" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s" s="46">
+      <c r="F20" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="G20" t="s" s="46">
+      <c r="G20" s="46" t="s">
         <v>279</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" t="s" s="81">
+      <c r="K20" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
+    <row r="21" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="124">
         <v>42736</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" t="s" s="46">
+      <c r="C21" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s" s="46">
+      <c r="D21" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E21" t="s" s="46">
+      <c r="E21" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s" s="46">
+      <c r="F21" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="G21" t="s" s="46">
+      <c r="G21" s="46" t="s">
         <v>280</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" t="s" s="81">
+      <c r="K21" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" ht="13.65" customHeight="1">
+    <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="124">
         <v>42736</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" t="s" s="46">
+      <c r="C22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s" s="46">
+      <c r="D22" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="E22" t="s" s="46">
+      <c r="E22" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" t="s" s="46">
+      <c r="G22" s="46" t="s">
         <v>282</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" t="s" s="81">
+      <c r="K22" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" ht="13.65" customHeight="1">
+    <row r="23" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="124">
         <v>42736</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" t="s" s="46">
+      <c r="C23" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s" s="46">
+      <c r="D23" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="E23" t="s" s="46">
+      <c r="E23" s="46" t="s">
         <v>260</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" t="s" s="46">
+      <c r="G23" s="46" t="s">
         <v>284</v>
       </c>
       <c r="H23" s="126"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" t="s" s="81">
+      <c r="K23" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
+    <row r="24" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="124">
         <v>42736</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" t="s" s="46">
+      <c r="C24" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s" s="46">
+      <c r="D24" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E24" t="s" s="46">
+      <c r="E24" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" t="s" s="46">
+      <c r="G24" s="46" t="s">
         <v>286</v>
       </c>
       <c r="H24" s="126"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" t="s" s="81">
+      <c r="K24" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" ht="13.65" customHeight="1">
+    <row r="25" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="124">
         <v>42736</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" t="s" s="46">
+      <c r="C25" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s" s="46">
+      <c r="D25" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E25" t="s" s="46">
+      <c r="E25" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" t="s" s="46">
+      <c r="G25" s="46" t="s">
         <v>288</v>
       </c>
       <c r="H25" s="126"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" t="s" s="81">
+      <c r="K25" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" ht="13.65" customHeight="1">
+    <row r="26" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="124">
         <v>42736</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" t="s" s="46">
+      <c r="C26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s" s="46">
+      <c r="D26" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="E26" t="s" s="46">
+      <c r="E26" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" t="s" s="46">
+      <c r="G26" s="46" t="s">
         <v>290</v>
       </c>
       <c r="H26" s="126"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" t="s" s="81">
+      <c r="K26" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" ht="13.65" customHeight="1">
+    <row r="27" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="124">
         <v>42736</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" t="s" s="46">
+      <c r="C27" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s" s="46">
+      <c r="D27" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="E27" t="s" s="46">
+      <c r="E27" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" t="s" s="46">
+      <c r="G27" s="46" t="s">
         <v>292</v>
       </c>
       <c r="H27" s="126"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" t="s" s="81">
+      <c r="K27" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" ht="13.65" customHeight="1">
+    <row r="28" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="127">
         <v>42736</v>
       </c>
       <c r="B28" s="128"/>
-      <c r="C28" t="s" s="129">
+      <c r="C28" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s" s="129">
+      <c r="D28" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="E28" t="s" s="121">
+      <c r="E28" s="121" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="128"/>
-      <c r="G28" t="s" s="129">
+      <c r="G28" s="129" t="s">
         <v>294</v>
       </c>
       <c r="H28" s="130"/>
       <c r="I28" s="128"/>
       <c r="J28" s="128"/>
-      <c r="K28" t="s" s="131">
+      <c r="K28" s="131" t="s">
         <v>40</v>
       </c>
       <c r="L28" s="132"/>
       <c r="M28" s="133"/>
     </row>
-    <row r="29" ht="13.75" customHeight="1">
+    <row r="29" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="134">
         <v>42736</v>
       </c>
       <c r="B29" s="135"/>
-      <c r="C29" t="s" s="136">
+      <c r="C29" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s" s="136">
+      <c r="D29" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="E29" t="s" s="137">
+      <c r="E29" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="F29" t="s" s="136">
+      <c r="F29" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="G29" t="s" s="136">
+      <c r="G29" s="136" t="s">
         <v>296</v>
       </c>
       <c r="H29" s="135"/>
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
-      <c r="K29" t="s" s="138">
+      <c r="K29" s="138" t="s">
         <v>40</v>
       </c>
       <c r="L29" s="139"/>
       <c r="M29" s="140"/>
     </row>
-    <row r="30" ht="13.75" customHeight="1">
+    <row r="30" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="134">
         <v>42736</v>
       </c>
       <c r="B30" s="135"/>
-      <c r="C30" t="s" s="136">
+      <c r="C30" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s" s="136">
+      <c r="D30" s="136" t="s">
         <v>297</v>
       </c>
-      <c r="E30" t="s" s="137">
+      <c r="E30" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="F30" t="s" s="136">
+      <c r="F30" s="136" t="s">
         <v>297</v>
       </c>
-      <c r="G30" t="s" s="136">
+      <c r="G30" s="136" t="s">
         <v>298</v>
       </c>
       <c r="H30" s="135"/>
       <c r="I30" s="135"/>
       <c r="J30" s="135"/>
-      <c r="K30" t="s" s="138">
+      <c r="K30" s="138" t="s">
         <v>40</v>
       </c>
       <c r="L30" s="139"/>
       <c r="M30" s="140"/>
     </row>
-    <row r="31" ht="13.65" customHeight="1">
+    <row r="31" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="141">
         <v>42736</v>
       </c>
       <c r="B31" s="142"/>
-      <c r="C31" t="s" s="143">
+      <c r="C31" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s" s="143">
+      <c r="D31" s="143" t="s">
         <v>299</v>
       </c>
-      <c r="E31" t="s" s="8">
+      <c r="E31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="142"/>
-      <c r="G31" t="s" s="143">
+      <c r="G31" s="143" t="s">
         <v>300</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="142"/>
       <c r="J31" s="142"/>
-      <c r="K31" t="s" s="144">
+      <c r="K31" s="144" t="s">
         <v>40</v>
       </c>
       <c r="L31" s="145"/>
       <c r="M31" s="146"/>
     </row>
-    <row r="32" ht="13.65" customHeight="1">
+    <row r="32" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="124">
         <v>42736</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" t="s" s="46">
+      <c r="C32" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s" s="46">
+      <c r="D32" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="E32" t="s" s="46">
+      <c r="E32" s="46" t="s">
         <v>260</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" t="s" s="46">
+      <c r="G32" s="46" t="s">
         <v>260</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" t="s" s="81">
+      <c r="K32" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" ht="13.65" customHeight="1">
+    <row r="33" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="124">
         <v>42736</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" t="s" s="46">
+      <c r="C33" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s" s="46">
+      <c r="D33" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="E33" t="s" s="46">
+      <c r="E33" s="46" t="s">
         <v>303</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" t="s" s="46">
+      <c r="G33" s="46" t="s">
         <v>304</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" t="s" s="81">
+      <c r="K33" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" ht="13.65" customHeight="1">
+    <row r="34" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="125">
         <v>42736</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" t="s" s="121">
+      <c r="C34" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s" s="121">
+      <c r="D34" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="E34" t="s" s="121">
+      <c r="E34" s="121" t="s">
         <v>61</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" t="s" s="121">
+      <c r="G34" s="121" t="s">
         <v>306</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" t="s" s="122">
+      <c r="K34" s="122" t="s">
         <v>40</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4878,31 +4736,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="147" customWidth="1"/>
-    <col min="3" max="3" width="20.3516" style="147" customWidth="1"/>
-    <col min="4" max="4" width="29.3516" style="147" customWidth="1"/>
-    <col min="5" max="10" width="10.6719" style="147" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="147" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="147" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="147" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="147" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="147" customWidth="1"/>
+    <col min="11" max="256" width="8.83203125" style="147" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B1" t="s" s="148">
+      <c r="B1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="149">
+      <c r="C1" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="150">
+      <c r="D1" s="150" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="151"/>
@@ -4912,23 +4770,23 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="71" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>310</v>
       </c>
       <c r="G2" s="152"/>
@@ -4936,23 +4794,23 @@
       <c r="I2" s="153"/>
       <c r="J2" s="153"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="154">
+      <c r="C3" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="154">
+      <c r="D3" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="155"/>
@@ -4960,18 +4818,18 @@
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="157"/>
-      <c r="C4" t="s" s="37">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="158">
+      <c r="E4" s="158" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="96">
@@ -4982,18 +4840,18 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="42">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="49">
+      <c r="E5" s="49" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="100">
@@ -5004,18 +4862,18 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="42">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" s="49" t="s">
         <v>313</v>
       </c>
       <c r="F6" s="100">
@@ -5026,18 +4884,18 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="49">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="100">
@@ -5048,7 +4906,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5060,7 +4918,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5072,7 +4930,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5085,8 +4943,8 @@
       <c r="J10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5094,28 +4952,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="159" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="159" customWidth="1"/>
+    <col min="1" max="16" width="10.6640625" style="159" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" style="159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -5131,23 +4989,23 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="113" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:16" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>317</v>
       </c>
       <c r="G2" s="152"/>
@@ -5161,23 +5019,23 @@
       <c r="O2" s="153"/>
       <c r="P2" s="153"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="154">
+      <c r="C3" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="154">
+      <c r="D3" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="160"/>
@@ -5191,18 +5049,18 @@
       <c r="O3" s="161"/>
       <c r="P3" s="161"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="157"/>
-      <c r="C4" t="s" s="37">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="158">
+      <c r="E4" s="158" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="96">
@@ -5219,18 +5077,18 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="42">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="49">
+      <c r="E5" s="49" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="100">
@@ -5247,18 +5105,18 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="42">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" s="49" t="s">
         <v>313</v>
       </c>
       <c r="F6" s="100">
@@ -5275,18 +5133,18 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="49">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="100">
@@ -5303,7 +5161,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5321,7 +5179,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5339,7 +5197,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5358,8 +5216,8 @@
       <c r="P10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5367,28 +5225,28 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="162" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="162" customWidth="1"/>
+    <col min="1" max="16" width="10.6640625" style="162" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" style="162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -5404,23 +5262,23 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="112" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:16" ht="112" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>317</v>
       </c>
       <c r="G2" s="163"/>
@@ -5434,23 +5292,23 @@
       <c r="O2" s="164"/>
       <c r="P2" s="164"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="154">
+      <c r="C3" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="154">
+      <c r="D3" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="160"/>
@@ -5464,18 +5322,18 @@
       <c r="O3" s="161"/>
       <c r="P3" s="161"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="157"/>
-      <c r="C4" t="s" s="37">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="158">
+      <c r="E4" s="158" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="96">
@@ -5492,18 +5350,18 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="42">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="49">
+      <c r="E5" s="49" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="100">
@@ -5520,18 +5378,18 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="42">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" s="49" t="s">
         <v>313</v>
       </c>
       <c r="F6" s="100">
@@ -5548,18 +5406,18 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="49">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="100">
@@ -5576,7 +5434,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5594,7 +5452,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5612,7 +5470,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5631,8 +5489,8 @@
       <c r="P10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5640,28 +5498,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="10.6719" style="165" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="165" customWidth="1"/>
+    <col min="1" max="10" width="10.6640625" style="165" customWidth="1"/>
+    <col min="11" max="256" width="8.83203125" style="165" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="166">
+    <row r="1" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="166" t="s">
         <v>319</v>
       </c>
-      <c r="B1" t="s" s="148">
+      <c r="B1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="167">
+      <c r="C1" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="168">
+      <c r="D1" s="168" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="169"/>
@@ -5671,23 +5529,23 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="113" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:10" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>310</v>
       </c>
       <c r="G2" s="152"/>
@@ -5695,23 +5553,23 @@
       <c r="I2" s="153"/>
       <c r="J2" s="153"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="154">
+      <c r="C3" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="154">
+      <c r="D3" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="155"/>
@@ -5719,18 +5577,18 @@
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="157"/>
-      <c r="C4" t="s" s="37">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="158">
+      <c r="E4" s="158" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="96">
@@ -5741,18 +5599,18 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="42">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="49">
+      <c r="E5" s="49" t="s">
         <v>312</v>
       </c>
       <c r="F5" s="100">
@@ -5763,18 +5621,18 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="42">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" s="49" t="s">
         <v>313</v>
       </c>
       <c r="F6" s="100">
@@ -5785,18 +5643,18 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="49">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="100">
@@ -5807,7 +5665,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5819,7 +5677,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5831,7 +5689,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5844,8 +5702,8 @@
       <c r="J10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5853,28 +5711,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="170" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="170" customWidth="1"/>
+    <col min="1" max="16" width="10.6640625" style="170" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" style="170" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -5890,21 +5748,21 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="84" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="171"/>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>323</v>
       </c>
       <c r="G2" s="17"/>
@@ -5918,23 +5776,23 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D3" t="s" s="30">
+      <c r="D3" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="E3" t="s" s="30">
+      <c r="E3" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="F3" t="s" s="30">
+      <c r="F3" s="30" t="s">
         <v>327</v>
       </c>
       <c r="G3" s="172"/>
@@ -5948,21 +5806,21 @@
       <c r="O3" s="173"/>
       <c r="P3" s="173"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="123">
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="174">
+      <c r="C4" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="D4" t="s" s="175">
+      <c r="D4" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="176">
+      <c r="E4" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="176">
+      <c r="F4" s="176" t="s">
         <v>116</v>
       </c>
       <c r="G4" s="17"/>
@@ -5976,21 +5834,21 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="124">
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="177">
+      <c r="C5" s="177" t="s">
         <v>329</v>
       </c>
-      <c r="D5" t="s" s="178">
+      <c r="D5" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s" s="179">
+      <c r="E5" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s" s="179">
+      <c r="F5" s="179" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="17"/>
@@ -6004,21 +5862,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="124">
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="177">
+      <c r="C6" s="177" t="s">
         <v>330</v>
       </c>
-      <c r="D6" t="s" s="178">
+      <c r="D6" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="179">
+      <c r="E6" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s" s="179">
+      <c r="F6" s="179" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="17"/>
@@ -6032,21 +5890,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="125">
         <v>42736</v>
       </c>
       <c r="B7" s="119"/>
-      <c r="C7" t="s" s="180">
+      <c r="C7" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="D7" t="s" s="181">
+      <c r="D7" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s" s="182">
+      <c r="E7" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s" s="182">
+      <c r="F7" s="182" t="s">
         <v>116</v>
       </c>
       <c r="G7" s="17"/>
@@ -6060,21 +5918,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="183">
         <v>42736</v>
       </c>
       <c r="B8" s="184"/>
-      <c r="C8" t="s" s="185">
+      <c r="C8" s="185" t="s">
         <v>332</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s" s="70">
+      <c r="E8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s" s="70">
+      <c r="F8" s="70" t="s">
         <v>116</v>
       </c>
       <c r="G8" s="17"/>
@@ -6088,7 +5946,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -6106,7 +5964,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6125,8 +5983,8 @@
       <c r="P10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6134,28 +5992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.6719" style="186" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="186" customWidth="1"/>
+    <col min="1" max="15" width="10.6640625" style="186" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="186" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -6170,20 +6028,20 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="126" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>336</v>
       </c>
       <c r="F2" s="163"/>
@@ -6197,20 +6055,20 @@
       <c r="N2" s="164"/>
       <c r="O2" s="164"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="55">
+      <c r="D3" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>338</v>
       </c>
       <c r="F3" s="17"/>
@@ -6224,18 +6082,18 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" ht="28" customHeight="1">
+    <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="183">
         <v>42736</v>
       </c>
       <c r="B4" s="187"/>
-      <c r="C4" t="s" s="70">
+      <c r="C4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="54">
+      <c r="D4" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="E4" t="s" s="188">
+      <c r="E4" s="188" t="s">
         <v>338</v>
       </c>
       <c r="F4" s="17"/>
@@ -6249,7 +6107,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -6266,7 +6124,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6283,7 +6141,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6300,7 +6158,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6317,7 +6175,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6334,7 +6192,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6352,8 +6210,8 @@
       <c r="O10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6361,31 +6219,31 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.6719" style="189" customWidth="1"/>
-    <col min="4" max="4" width="19.1719" style="189" customWidth="1"/>
-    <col min="5" max="5" width="31.1719" style="189" customWidth="1"/>
-    <col min="6" max="15" width="10.6719" style="189" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="189" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" style="189" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="189" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="189" customWidth="1"/>
+    <col min="6" max="15" width="10.6640625" style="189" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="189" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -6400,23 +6258,23 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="98" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="19"/>
@@ -6429,23 +6287,23 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="55">
+      <c r="D3" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="55">
+      <c r="E3" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>338</v>
       </c>
       <c r="G3" s="22"/>
@@ -6458,21 +6316,21 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="123">
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="190">
+      <c r="C4" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="191">
+      <c r="E4" s="191" t="s">
         <v>339</v>
       </c>
-      <c r="F4" t="s" s="188">
+      <c r="F4" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G4" s="17"/>
@@ -6485,21 +6343,21 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="124">
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="192">
+      <c r="C5" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="193">
+      <c r="E5" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F5" t="s" s="188">
+      <c r="F5" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G5" s="17"/>
@@ -6512,21 +6370,21 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="124">
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="192">
+      <c r="C6" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="193">
+      <c r="E6" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F6" t="s" s="188">
+      <c r="F6" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G6" s="17"/>
@@ -6539,21 +6397,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="124">
         <v>42736</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" t="s" s="192">
+      <c r="C7" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="193">
+      <c r="E7" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F7" t="s" s="188">
+      <c r="F7" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G7" s="17"/>
@@ -6566,21 +6424,21 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="124">
         <v>42736</v>
       </c>
       <c r="B8" s="89"/>
-      <c r="C8" t="s" s="192">
+      <c r="C8" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="43">
+      <c r="D8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s" s="193">
+      <c r="E8" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F8" t="s" s="188">
+      <c r="F8" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G8" s="17"/>
@@ -6593,21 +6451,21 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="124">
         <v>42736</v>
       </c>
       <c r="B9" s="89"/>
-      <c r="C9" t="s" s="192">
+      <c r="C9" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="43">
+      <c r="D9" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s" s="193">
+      <c r="E9" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F9" t="s" s="188">
+      <c r="F9" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G9" s="17"/>
@@ -6620,21 +6478,21 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="124">
         <v>42736</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" t="s" s="192">
+      <c r="C10" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="47">
+      <c r="D10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="193">
+      <c r="E10" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F10" t="s" s="188">
+      <c r="F10" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G10" s="17"/>
@@ -6647,21 +6505,21 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" ht="14" customHeight="1">
+    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="124">
         <v>42736</v>
       </c>
       <c r="B11" s="89"/>
-      <c r="C11" t="s" s="192">
+      <c r="C11" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="47">
+      <c r="D11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s" s="193">
+      <c r="E11" s="193" t="s">
         <v>339</v>
       </c>
-      <c r="F11" t="s" s="188">
+      <c r="F11" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G11" s="17"/>
@@ -6674,21 +6532,21 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="14" customHeight="1">
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="124">
         <v>42736</v>
       </c>
       <c r="B12" s="89"/>
-      <c r="C12" t="s" s="116">
+      <c r="C12" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="194">
+      <c r="D12" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="195">
+      <c r="E12" s="195" t="s">
         <v>339</v>
       </c>
-      <c r="F12" t="s" s="188">
+      <c r="F12" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G12" s="17"/>
@@ -6702,8 +6560,8 @@
       <c r="O12" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6711,28 +6569,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.6719" style="196" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="196" customWidth="1"/>
+    <col min="1" max="15" width="10.6640625" style="196" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="196" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -6747,23 +6605,23 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="126" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="28"/>
@@ -6776,23 +6634,23 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="110">
+    <row r="3" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="110">
+      <c r="B3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="197">
+      <c r="C3" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="197">
+      <c r="D3" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="E3" t="s" s="197">
+      <c r="E3" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="F3" t="s" s="110">
+      <c r="F3" s="110" t="s">
         <v>338</v>
       </c>
       <c r="G3" s="112"/>
@@ -6805,21 +6663,21 @@
       <c r="N3" s="113"/>
       <c r="O3" s="113"/>
     </row>
-    <row r="4" ht="28" customHeight="1">
+    <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="198">
         <v>42736</v>
       </c>
       <c r="B4" s="78"/>
-      <c r="C4" t="s" s="176">
+      <c r="C4" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="75">
+      <c r="D4" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s" s="199">
+      <c r="E4" s="199" t="s">
         <v>339</v>
       </c>
-      <c r="F4" t="s" s="188">
+      <c r="F4" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G4" s="17"/>
@@ -6832,21 +6690,21 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="28" customHeight="1">
+    <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="200">
         <v>42736</v>
       </c>
       <c r="B5" s="83"/>
-      <c r="C5" t="s" s="179">
+      <c r="C5" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="75">
+      <c r="D5" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s" s="201">
+      <c r="E5" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F5" t="s" s="188">
+      <c r="F5" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G5" s="17"/>
@@ -6859,21 +6717,21 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="28" customHeight="1">
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="200">
         <v>42736</v>
       </c>
       <c r="B6" s="83"/>
-      <c r="C6" t="s" s="179">
+      <c r="C6" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="75">
+      <c r="D6" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E6" t="s" s="201">
+      <c r="E6" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F6" t="s" s="188">
+      <c r="F6" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G6" s="17"/>
@@ -6886,21 +6744,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="28" customHeight="1">
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="200">
         <v>42736</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" t="s" s="179">
+      <c r="C7" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="75">
+      <c r="D7" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="E7" t="s" s="201">
+      <c r="E7" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F7" t="s" s="188">
+      <c r="F7" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G7" s="17"/>
@@ -6913,21 +6771,21 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="28" customHeight="1">
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="200">
         <v>42736</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" t="s" s="179">
+      <c r="C8" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="75">
+      <c r="D8" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E8" t="s" s="201">
+      <c r="E8" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F8" t="s" s="188">
+      <c r="F8" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G8" s="17"/>
@@ -6940,21 +6798,21 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="28" customHeight="1">
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="200">
         <v>42736</v>
       </c>
       <c r="B9" s="83"/>
-      <c r="C9" t="s" s="179">
+      <c r="C9" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="75">
+      <c r="D9" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E9" t="s" s="201">
+      <c r="E9" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F9" t="s" s="188">
+      <c r="F9" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G9" s="17"/>
@@ -6967,21 +6825,21 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="28" customHeight="1">
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="200">
         <v>42736</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" t="s" s="179">
+      <c r="C10" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="75">
+      <c r="D10" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="E10" t="s" s="201">
+      <c r="E10" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F10" t="s" s="188">
+      <c r="F10" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G10" s="17"/>
@@ -6994,21 +6852,21 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" ht="28" customHeight="1">
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="200">
         <v>42736</v>
       </c>
       <c r="B11" s="83"/>
-      <c r="C11" t="s" s="179">
+      <c r="C11" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="75">
+      <c r="D11" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E11" t="s" s="201">
+      <c r="E11" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F11" t="s" s="188">
+      <c r="F11" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G11" s="17"/>
@@ -7021,21 +6879,21 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="28" customHeight="1">
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="200">
         <v>42736</v>
       </c>
       <c r="B12" s="83"/>
-      <c r="C12" t="s" s="179">
+      <c r="C12" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="75">
+      <c r="D12" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E12" t="s" s="201">
+      <c r="E12" s="201" t="s">
         <v>339</v>
       </c>
-      <c r="F12" t="s" s="188">
+      <c r="F12" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G12" s="17"/>
@@ -7048,7 +6906,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="202"/>
       <c r="B13" s="203"/>
       <c r="C13" s="203"/>
@@ -7065,7 +6923,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="114"/>
@@ -7083,8 +6941,8 @@
       <c r="O14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7092,28 +6950,28 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="10.6719" style="206" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="206" customWidth="1"/>
+    <col min="1" max="16" width="10.6640625" style="206" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" style="206" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -7129,23 +6987,23 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="126" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:16" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="28"/>
@@ -7159,23 +7017,23 @@
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="110">
+    <row r="3" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="110">
+      <c r="B3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="197">
+      <c r="C3" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="197">
+      <c r="D3" s="197" t="s">
         <v>347</v>
       </c>
-      <c r="E3" t="s" s="197">
+      <c r="E3" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="F3" t="s" s="110">
+      <c r="F3" s="110" t="s">
         <v>338</v>
       </c>
       <c r="G3" s="112"/>
@@ -7189,21 +7047,21 @@
       <c r="O3" s="113"/>
       <c r="P3" s="113"/>
     </row>
-    <row r="4" ht="28" customHeight="1">
+    <row r="4" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="183">
         <v>42736</v>
       </c>
       <c r="B4" s="184"/>
-      <c r="C4" t="s" s="70">
+      <c r="C4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="70">
+      <c r="D4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s" s="54">
+      <c r="E4" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="F4" t="s" s="188">
+      <c r="F4" s="188" t="s">
         <v>338</v>
       </c>
       <c r="G4" s="17"/>
@@ -7217,7 +7075,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -7235,7 +7093,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7253,7 +7111,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7271,7 +7129,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7289,7 +7147,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7307,7 +7165,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7326,8 +7184,8 @@
       <c r="P10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7335,28 +7193,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.6719" style="11" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="15" width="10.6640625" style="11" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -7371,20 +7229,20 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="126" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="19"/>
@@ -7398,20 +7256,20 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="22"/>
@@ -7425,18 +7283,18 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" t="s" s="26">
+      <c r="C4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="3"/>
@@ -7450,7 +7308,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7467,7 +7325,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7484,7 +7342,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7501,7 +7359,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7518,7 +7376,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7535,7 +7393,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7553,8 +7411,8 @@
       <c r="O10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7562,480 +7420,524 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="11.5" style="207" customWidth="1"/>
-    <col min="5" max="5" width="37.3516" style="207" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="207" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="207" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="207" customWidth="1"/>
+    <col min="8" max="256" width="8.83203125" style="207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" ht="126" customHeight="1">
+    <row r="2" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="171"/>
       <c r="B2" s="171"/>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="110">
+    <row r="3" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="110">
+      <c r="B3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="197">
+      <c r="C3" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="197">
+      <c r="D3" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s" s="197">
+      <c r="E3" s="197" t="s">
         <v>214</v>
       </c>
-      <c r="F3" t="s" s="197">
+      <c r="F3" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="G3" t="s" s="110">
+      <c r="G3" s="110" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1">
+    <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="183">
         <v>42736</v>
       </c>
       <c r="B4" s="184"/>
-      <c r="C4" t="s" s="70">
+      <c r="C4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="70">
+      <c r="D4" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s" s="176">
+      <c r="E4" s="176" t="s">
         <v>270</v>
       </c>
-      <c r="F4" t="s" s="54">
+      <c r="F4" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G4" t="s" s="188">
+      <c r="G4" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" ht="28" customHeight="1">
+    <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="183">
         <v>42736</v>
       </c>
       <c r="B5" s="184"/>
-      <c r="C5" t="s" s="70">
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="70">
+      <c r="D5" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s" s="179">
+      <c r="E5" s="179" t="s">
         <v>272</v>
       </c>
-      <c r="F5" t="s" s="54">
+      <c r="F5" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G5" t="s" s="188">
+      <c r="G5" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" ht="28" customHeight="1">
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="183">
         <v>42736</v>
       </c>
       <c r="B6" s="184"/>
-      <c r="C6" t="s" s="70">
+      <c r="C6" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="70">
+      <c r="D6" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s" s="179">
+      <c r="E6" s="179" t="s">
         <v>258</v>
       </c>
-      <c r="F6" t="s" s="54">
+      <c r="F6" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G6" t="s" s="188">
+      <c r="G6" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" ht="28" customHeight="1">
+    <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="183">
         <v>42736</v>
       </c>
       <c r="B7" s="184"/>
-      <c r="C7" t="s" s="70">
+      <c r="C7" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="70">
+      <c r="D7" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s" s="179">
+      <c r="E7" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="F7" t="s" s="54">
+      <c r="F7" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G7" t="s" s="188">
+      <c r="G7" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" ht="28" customHeight="1">
+    <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="183">
         <v>42736</v>
       </c>
       <c r="B8" s="184"/>
-      <c r="C8" t="s" s="70">
+      <c r="C8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="70">
+      <c r="D8" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s" s="179">
+      <c r="E8" s="179" t="s">
         <v>277</v>
       </c>
-      <c r="F8" t="s" s="54">
+      <c r="F8" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G8" t="s" s="188">
+      <c r="G8" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" ht="28" customHeight="1">
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="183">
         <v>42736</v>
       </c>
       <c r="B9" s="184"/>
-      <c r="C9" t="s" s="70">
+      <c r="C9" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="70">
+      <c r="D9" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s" s="179">
+      <c r="E9" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="F9" t="s" s="54">
+      <c r="F9" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G9" t="s" s="188">
+      <c r="G9" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" ht="28" customHeight="1">
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="183">
         <v>42736</v>
       </c>
       <c r="B10" s="184"/>
-      <c r="C10" t="s" s="70">
+      <c r="C10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="70">
+      <c r="D10" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="179">
+      <c r="E10" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="F10" t="s" s="54">
+      <c r="F10" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G10" t="s" s="188">
+      <c r="G10" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" ht="28" customHeight="1">
+    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="183">
         <v>42736</v>
       </c>
       <c r="B11" s="184"/>
-      <c r="C11" t="s" s="70">
+      <c r="C11" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="70">
+      <c r="D11" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s" s="179">
+      <c r="E11" s="179" t="s">
         <v>281</v>
       </c>
-      <c r="F11" t="s" s="54">
+      <c r="F11" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G11" t="s" s="188">
+      <c r="G11" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" ht="28" customHeight="1">
+    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="183">
         <v>42736</v>
       </c>
       <c r="B12" s="184"/>
-      <c r="C12" t="s" s="70">
+      <c r="C12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="70">
+      <c r="D12" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s" s="179">
+      <c r="E12" s="179" t="s">
         <v>283</v>
       </c>
-      <c r="F12" t="s" s="54">
+      <c r="F12" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G12" t="s" s="188">
+      <c r="G12" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" ht="28" customHeight="1">
+    <row r="13" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="183">
         <v>42736</v>
       </c>
       <c r="B13" s="184"/>
-      <c r="C13" t="s" s="70">
+      <c r="C13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s" s="70">
+      <c r="D13" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s" s="179">
+      <c r="E13" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="F13" t="s" s="54">
+      <c r="F13" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s" s="188">
+      <c r="G13" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" ht="28" customHeight="1">
+    <row r="14" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="183">
         <v>42736</v>
       </c>
       <c r="B14" s="184"/>
-      <c r="C14" t="s" s="70">
+      <c r="C14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="70">
+      <c r="D14" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s" s="179">
+      <c r="E14" s="179" t="s">
         <v>289</v>
       </c>
-      <c r="F14" t="s" s="54">
+      <c r="F14" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G14" t="s" s="188">
+      <c r="G14" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" ht="28" customHeight="1">
+    <row r="15" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="183">
         <v>42736</v>
       </c>
       <c r="B15" s="184"/>
-      <c r="C15" t="s" s="70">
+      <c r="C15" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s" s="70">
+      <c r="D15" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s" s="179">
+      <c r="E15" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="F15" t="s" s="54">
+      <c r="F15" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G15" t="s" s="188">
+      <c r="G15" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" ht="28" customHeight="1">
-      <c r="A16" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="184"/>
-      <c r="C16" t="s" s="70">
+    <row r="16" spans="1:7" s="214" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="208">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="209"/>
+      <c r="C16" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s" s="70">
+      <c r="D16" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s" s="179">
+      <c r="E16" s="211" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="212" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="213" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="214" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="208">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="209"/>
+      <c r="C17" s="210" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="210" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="211" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="212" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="213" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="184"/>
+      <c r="C18" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="179" t="s">
         <v>291</v>
       </c>
-      <c r="F16" t="s" s="54">
+      <c r="F18" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G16" t="s" s="188">
+      <c r="G18" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" ht="28" customHeight="1">
-      <c r="A17" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="184"/>
-      <c r="C17" t="s" s="70">
+    <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="184"/>
+      <c r="C19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s" s="70">
+      <c r="D19" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s" s="182">
+      <c r="E19" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="F17" t="s" s="54">
+      <c r="F19" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G17" t="s" s="188">
+      <c r="G19" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" ht="28" customHeight="1">
-      <c r="A18" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="184"/>
-      <c r="C18" t="s" s="70">
+    <row r="20" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="184"/>
+      <c r="C20" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s" s="70">
+      <c r="D20" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s" s="176">
+      <c r="E20" s="176" t="s">
         <v>351</v>
       </c>
-      <c r="F18" t="s" s="54">
+      <c r="F20" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G18" t="s" s="188">
+      <c r="G20" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" ht="28" customHeight="1">
-      <c r="A19" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="184"/>
-      <c r="C19" t="s" s="70">
+    <row r="21" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="184"/>
+      <c r="C21" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s" s="70">
+      <c r="D21" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s" s="179">
+      <c r="E21" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="F19" t="s" s="54">
+      <c r="F21" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G19" t="s" s="188">
+      <c r="G21" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" ht="28" customHeight="1">
-      <c r="A20" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="184"/>
-      <c r="C20" t="s" s="70">
+    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="184"/>
+      <c r="C22" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s" s="70">
+      <c r="D22" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s" s="179">
+      <c r="E22" s="179" t="s">
         <v>301</v>
       </c>
-      <c r="F20" t="s" s="54">
+      <c r="F22" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G20" t="s" s="188">
+      <c r="G22" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" ht="28" customHeight="1">
-      <c r="A21" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="184"/>
-      <c r="C21" t="s" s="70">
+    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="184"/>
+      <c r="C23" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="70">
+      <c r="D23" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s" s="179">
+      <c r="E23" s="179" t="s">
         <v>302</v>
       </c>
-      <c r="F21" t="s" s="54">
+      <c r="F23" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G21" t="s" s="188">
+      <c r="G23" s="188" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" ht="28" customHeight="1">
-      <c r="A22" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="184"/>
-      <c r="C22" t="s" s="70">
+    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="183">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="184"/>
+      <c r="C24" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s" s="70">
+      <c r="D24" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s" s="182">
+      <c r="E24" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="F22" t="s" s="54">
+      <c r="F24" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G22" t="s" s="188">
+      <c r="G24" s="188" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000AuthorisationComplexType</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -8044,30 +7946,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="27" customWidth="1"/>
-    <col min="4" max="19" width="10.6719" style="27" customWidth="1"/>
-    <col min="20" max="256" width="8.85156" style="27" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="27" customWidth="1"/>
+    <col min="4" max="19" width="10.6640625" style="27" customWidth="1"/>
+    <col min="20" max="256" width="8.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -8086,32 +7988,32 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" ht="210" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="I2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="28"/>
@@ -8125,32 +8027,32 @@
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
     </row>
-    <row r="3" ht="42" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="21">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="30">
+      <c r="F3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s" s="31">
+      <c r="H3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="22"/>
@@ -8164,26 +8066,26 @@
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="32">
+      <c r="D4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s" s="32">
+      <c r="E4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s" s="26">
+      <c r="F4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
-      <c r="I4" t="s" s="10">
+      <c r="I4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="3"/>
@@ -8197,7 +8099,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8218,7 +8120,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8239,7 +8141,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8260,7 +8162,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8281,7 +8183,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8302,7 +8204,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8324,8 +8226,8 @@
       <c r="S10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8333,33 +8235,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IU14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.3516" style="34" customWidth="1"/>
-    <col min="4" max="4" width="34.1719" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18.1719" style="34" customWidth="1"/>
-    <col min="6" max="6" hidden="1" width="8.83333" style="34" customWidth="1"/>
-    <col min="7" max="7" width="13.6719" style="34" customWidth="1"/>
-    <col min="8" max="255" width="10.6719" style="34" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="34" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="34" customWidth="1"/>
+    <col min="8" max="255" width="10.6640625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -8614,41 +8516,41 @@
       <c r="IT1" s="3"/>
       <c r="IU1" s="3"/>
     </row>
-    <row r="2" ht="100" customHeight="1" hidden="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:255" ht="100" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="I2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s" s="18">
+      <c r="J2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s" s="18">
+      <c r="L2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="17"/>
@@ -8895,41 +8797,41 @@
       <c r="IT2" s="3"/>
       <c r="IU2" s="3"/>
     </row>
-    <row r="3" ht="28" customHeight="1">
-      <c r="A3" t="s" s="31">
+    <row r="3" spans="1:255" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="31">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="35">
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="36">
+      <c r="D3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="31">
+      <c r="E3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="31">
+      <c r="F3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s" s="31">
+      <c r="G3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s" s="31">
+      <c r="H3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s" s="31">
+      <c r="I3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s" s="31">
+      <c r="J3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s" s="31">
+      <c r="K3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="31">
+      <c r="L3" s="31" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="17"/>
@@ -9176,27 +9078,27 @@
       <c r="IT3" s="3"/>
       <c r="IU3" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" t="s" s="37">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="38">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s" s="38">
+      <c r="E4" s="38" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="33"/>
-      <c r="J4" t="s" s="8">
+      <c r="J4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="33"/>
@@ -9445,27 +9347,27 @@
       <c r="IT4" s="3"/>
       <c r="IU4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="41"/>
-      <c r="C5" t="s" s="42">
+      <c r="C5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="43">
+      <c r="D5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s" s="43">
+      <c r="E5" s="43" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="44"/>
-      <c r="G5" t="s" s="43">
+      <c r="G5" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="3"/>
-      <c r="J5" t="s" s="46">
+      <c r="J5" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="3"/>
@@ -9714,27 +9616,27 @@
       <c r="IT5" s="3"/>
       <c r="IU5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="41"/>
-      <c r="C6" t="s" s="42">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="43">
+      <c r="D6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s" s="43">
+      <c r="E6" s="43" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="44"/>
-      <c r="G6" t="s" s="43">
+      <c r="G6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="3"/>
-      <c r="J6" t="s" s="46">
+      <c r="J6" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="3"/>
@@ -9983,27 +9885,27 @@
       <c r="IT6" s="3"/>
       <c r="IU6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="41"/>
-      <c r="C7" t="s" s="42">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="43">
+      <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="43">
+      <c r="E7" s="43" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" t="s" s="43">
+      <c r="G7" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="3"/>
-      <c r="J7" t="s" s="46">
+      <c r="J7" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="3"/>
@@ -10252,27 +10154,27 @@
       <c r="IT7" s="3"/>
       <c r="IU7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41">
         <v>42736</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" t="s" s="42">
+      <c r="C8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="43">
+      <c r="D8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s" s="43">
+      <c r="E8" s="43" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="44"/>
-      <c r="G8" t="s" s="43">
+      <c r="G8" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="3"/>
-      <c r="J8" t="s" s="46">
+      <c r="J8" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="3"/>
@@ -10521,29 +10423,29 @@
       <c r="IT8" s="3"/>
       <c r="IU8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>42736</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="42">
+      <c r="C9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="47">
+      <c r="D9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s" s="47">
+      <c r="E9" s="47" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="48"/>
-      <c r="G9" t="s" s="47">
+      <c r="G9" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H9" t="s" s="49">
+      <c r="H9" s="49" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" t="s" s="46">
+      <c r="J9" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="41"/>
@@ -10792,31 +10694,31 @@
       <c r="IT9" s="3"/>
       <c r="IU9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41">
         <v>42736</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" t="s" s="42">
+      <c r="C10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="47">
+      <c r="D10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="47">
+      <c r="E10" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s" s="47">
+      <c r="F10" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s" s="47">
+      <c r="G10" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s" s="50">
+      <c r="H10" s="50" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" t="s" s="46">
+      <c r="J10" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="4"/>
@@ -11065,29 +10967,29 @@
       <c r="IT10" s="3"/>
       <c r="IU10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
         <v>42736</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" t="s" s="42">
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="47">
+      <c r="D11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s" s="47">
+      <c r="E11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="48"/>
-      <c r="G11" t="s" s="47">
+      <c r="G11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s" s="50">
+      <c r="H11" s="50" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" t="s" s="46">
+      <c r="J11" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="4"/>
@@ -11336,27 +11238,27 @@
       <c r="IT11" s="3"/>
       <c r="IU11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41">
         <v>42736</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" t="s" s="42">
+      <c r="C12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="47">
+      <c r="D12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="47">
+      <c r="E12" s="47" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="48"/>
-      <c r="G12" t="s" s="47">
+      <c r="G12" s="47" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="3"/>
-      <c r="J12" t="s" s="46">
+      <c r="J12" s="46" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="3"/>
@@ -11605,7 +11507,7 @@
       <c r="IT12" s="3"/>
       <c r="IU12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="3"/>
@@ -11862,7 +11764,7 @@
       <c r="IT13" s="3"/>
       <c r="IU13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:255" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12120,8 +12022,8 @@
       <c r="IU14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -12129,35 +12031,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="10.6719" style="53" customWidth="1"/>
-    <col min="5" max="5" width="23.6719" style="53" customWidth="1"/>
-    <col min="6" max="6" width="26.1719" style="53" customWidth="1"/>
-    <col min="7" max="7" width="24.6719" style="53" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="53" customWidth="1"/>
     <col min="8" max="8" width="31" style="53" customWidth="1"/>
-    <col min="9" max="9" width="18.6719" style="53" customWidth="1"/>
-    <col min="10" max="11" width="10.6719" style="53" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="53" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="53" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="53" customWidth="1"/>
+    <col min="12" max="256" width="8.83203125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="16"/>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s" s="15">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="16"/>
@@ -12167,97 +12069,97 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" ht="182" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:11" ht="182" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F2" t="s" s="54">
+      <c r="F2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G2" t="s" s="54">
+      <c r="G2" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s" s="54">
+      <c r="H2" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s" s="54">
+      <c r="I2" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="J2" t="s" s="18">
+      <c r="J2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K2" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s" s="21">
+      <c r="E3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H3" t="s" s="55">
+      <c r="H3" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="J3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s" s="6">
+      <c r="K3" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="56">
         <v>42736</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s" s="37">
+      <c r="E4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F4" t="s" s="38">
+      <c r="F4" s="38" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="57">
         <v>1</v>
       </c>
-      <c r="H4" t="s" s="38">
+      <c r="H4" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="58">
@@ -12266,27 +12168,27 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="59">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="46">
+      <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="46">
+      <c r="D5" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E5" t="s" s="42">
+      <c r="E5" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F5" t="s" s="43">
+      <c r="F5" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="60">
         <v>1</v>
       </c>
-      <c r="H5" t="s" s="43">
+      <c r="H5" s="43" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="61">
@@ -12295,27 +12197,27 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="59">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="46">
+      <c r="C6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="46">
+      <c r="D6" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s" s="42">
+      <c r="E6" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F6" t="s" s="43">
+      <c r="F6" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G6" s="60">
         <v>1</v>
       </c>
-      <c r="H6" t="s" s="43">
+      <c r="H6" s="43" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="61">
@@ -12324,27 +12226,27 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="59">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="46">
+      <c r="C7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="46">
+      <c r="D7" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s" s="42">
+      <c r="E7" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F7" t="s" s="43">
+      <c r="F7" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="60">
         <v>1</v>
       </c>
-      <c r="H7" t="s" s="43">
+      <c r="H7" s="43" t="s">
         <v>66</v>
       </c>
       <c r="I7" s="61">
@@ -12353,27 +12255,27 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="59">
         <v>42736</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" t="s" s="46">
+      <c r="C8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="46">
+      <c r="D8" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E8" t="s" s="42">
+      <c r="E8" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s" s="43">
+      <c r="F8" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="H8" t="s" s="43">
+      <c r="H8" s="43" t="s">
         <v>68</v>
       </c>
       <c r="I8" s="61">
@@ -12382,27 +12284,27 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="59">
         <v>42736</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="46">
+      <c r="C9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="46">
+      <c r="D9" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E9" t="s" s="42">
+      <c r="E9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F9" t="s" s="43">
+      <c r="F9" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="60">
         <v>1</v>
       </c>
-      <c r="H9" t="s" s="43">
+      <c r="H9" s="43" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="61">
@@ -12411,27 +12313,27 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="59">
         <v>42736</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" t="s" s="46">
+      <c r="C10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="46">
+      <c r="D10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E10" t="s" s="42">
+      <c r="E10" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s" s="43">
+      <c r="F10" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G10" s="60">
         <v>4</v>
       </c>
-      <c r="H10" t="s" s="47">
+      <c r="H10" s="47" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="61">
@@ -12440,27 +12342,27 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="59">
         <v>42736</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" t="s" s="46">
+      <c r="C11" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="46">
+      <c r="D11" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E11" t="s" s="42">
+      <c r="E11" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s" s="43">
+      <c r="F11" s="43" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="60">
         <v>3</v>
       </c>
-      <c r="H11" t="s" s="47">
+      <c r="H11" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="61">
@@ -12469,27 +12371,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="59">
         <v>42736</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" t="s" s="46">
+      <c r="C12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="46">
+      <c r="D12" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s" s="42">
+      <c r="E12" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s" s="43">
+      <c r="F12" s="43" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="60">
         <v>5</v>
       </c>
-      <c r="H12" t="s" s="47">
+      <c r="H12" s="47" t="s">
         <v>83</v>
       </c>
       <c r="I12" s="61">
@@ -12498,7 +12400,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12511,7 +12413,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12525,8 +12427,8 @@
       <c r="K14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -12534,28 +12436,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="17" width="10.6719" style="68" customWidth="1"/>
-    <col min="18" max="256" width="8.85156" style="68" customWidth="1"/>
+    <col min="1" max="17" width="10.6640625" style="68" customWidth="1"/>
+    <col min="18" max="256" width="8.83203125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -12572,29 +12474,29 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="210" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:17" ht="210" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>113</v>
       </c>
       <c r="I2" s="19"/>
@@ -12607,29 +12509,29 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I3" s="17"/>
@@ -12642,21 +12544,21 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" t="s" s="69">
+      <c r="C4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="70">
+      <c r="D4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s" s="70">
+      <c r="E4" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="F4" t="s" s="70">
+      <c r="F4" s="70" t="s">
         <v>118</v>
       </c>
       <c r="G4" s="71">
@@ -12673,7 +12575,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12692,7 +12594,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12711,7 +12613,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -12730,7 +12632,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12749,7 +12651,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12768,7 +12670,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12788,8 +12690,8 @@
       <c r="Q10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -12797,34 +12699,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.6719" style="73" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="73" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="73" customWidth="1"/>
-    <col min="6" max="6" hidden="1" width="8.83333" style="73" customWidth="1"/>
-    <col min="7" max="9" width="10.6719" style="73" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="73" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" style="73" customWidth="1"/>
     <col min="10" max="10" width="23" style="73" customWidth="1"/>
-    <col min="11" max="20" width="10.6719" style="73" customWidth="1"/>
-    <col min="21" max="256" width="8.85156" style="73" customWidth="1"/>
+    <col min="11" max="20" width="10.6640625" style="73" customWidth="1"/>
+    <col min="21" max="256" width="8.83203125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -12844,152 +12746,152 @@
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
     </row>
-    <row r="2" ht="319" customHeight="1" hidden="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:20" ht="319" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="I2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J2" t="s" s="18">
+      <c r="J2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="L2" t="s" s="18">
+      <c r="L2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="M2" t="s" s="18">
+      <c r="M2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="N2" t="s" s="18">
+      <c r="N2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O2" t="s" s="18">
+      <c r="O2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="P2" t="s" s="18">
+      <c r="P2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s" s="18">
+      <c r="Q2" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="R2" t="s" s="18">
+      <c r="R2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="S2" t="s" s="18">
+      <c r="S2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="T2" t="s" s="18">
+      <c r="T2" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="56" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:20" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="21">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H3" t="s" s="30">
+      <c r="H3" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I3" t="s" s="30">
+      <c r="I3" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J3" t="s" s="31">
+      <c r="J3" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="K3" t="s" s="31">
+      <c r="K3" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L3" t="s" s="31">
+      <c r="L3" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="M3" t="s" s="31">
+      <c r="M3" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="N3" t="s" s="31">
+      <c r="N3" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O3" t="s" s="31">
+      <c r="O3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="P3" t="s" s="6">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s" s="6">
+      <c r="Q3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R3" t="s" s="6">
+      <c r="R3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="S3" t="s" s="6">
+      <c r="S3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="T3" t="s" s="6">
+      <c r="T3" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>11</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" t="s" s="69">
+      <c r="C4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="75">
+      <c r="D4" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s" s="70">
+      <c r="E4" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="F4" t="s" s="70">
+      <c r="F4" s="70" t="s">
         <v>146</v>
       </c>
       <c r="G4" s="76">
         <v>1</v>
       </c>
       <c r="H4" s="33"/>
-      <c r="I4" t="s" s="69">
+      <c r="I4" s="69" t="s">
         <v>116</v>
       </c>
       <c r="J4" s="77"/>
@@ -12998,40 +12900,40 @@
       <c r="M4" s="78"/>
       <c r="N4" s="77"/>
       <c r="O4" s="72"/>
-      <c r="P4" t="s" s="8">
+      <c r="P4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="Q4" s="79"/>
-      <c r="R4" t="s" s="80">
+      <c r="R4" s="80" t="s">
         <v>147</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="33"/>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="81">
+      <c r="C5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="75">
+      <c r="D5" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s" s="70">
+      <c r="E5" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="F5" t="s" s="70">
+      <c r="F5" s="70" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="82">
         <v>2</v>
       </c>
-      <c r="H5" t="s" s="46">
+      <c r="H5" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s" s="81">
+      <c r="I5" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J5" s="77"/>
@@ -13040,45 +12942,45 @@
       <c r="M5" s="83"/>
       <c r="N5" s="77"/>
       <c r="O5" s="17"/>
-      <c r="P5" t="s" s="46">
+      <c r="P5" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" t="s" s="84">
+      <c r="R5" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="81">
+      <c r="C6" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="75">
+      <c r="D6" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E6" t="s" s="70">
+      <c r="E6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F6" t="s" s="70">
+      <c r="F6" s="70" t="s">
         <v>154</v>
       </c>
       <c r="G6" s="82">
         <v>3</v>
       </c>
-      <c r="H6" t="s" s="46">
+      <c r="H6" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I6" t="s" s="46">
+      <c r="I6" s="46" t="s">
         <v>116</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="3"/>
-      <c r="L6" t="s" s="86">
+      <c r="L6" s="86" t="s">
         <v>155</v>
       </c>
       <c r="M6" s="3"/>
@@ -13086,40 +12988,40 @@
       <c r="O6" s="87">
         <v>5</v>
       </c>
-      <c r="P6" t="s" s="46">
+      <c r="P6" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" t="s" s="84">
+      <c r="R6" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="81">
+      <c r="C7" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="75">
+      <c r="D7" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="E7" t="s" s="70">
+      <c r="E7" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s" s="70">
+      <c r="F7" s="70" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="82">
         <v>4</v>
       </c>
-      <c r="H7" t="s" s="46">
+      <c r="H7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s" s="81">
+      <c r="I7" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J7" s="77"/>
@@ -13128,45 +13030,45 @@
       <c r="M7" s="83"/>
       <c r="N7" s="77"/>
       <c r="O7" s="17"/>
-      <c r="P7" t="s" s="46">
+      <c r="P7" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" t="s" s="84">
+      <c r="R7" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41">
         <v>42736</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" t="s" s="81">
+      <c r="C8" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="75">
+      <c r="D8" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E8" t="s" s="70">
+      <c r="E8" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F8" t="s" s="70">
+      <c r="F8" s="70" t="s">
         <v>161</v>
       </c>
       <c r="G8" s="82">
         <v>5</v>
       </c>
-      <c r="H8" t="s" s="46">
+      <c r="H8" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I8" t="s" s="81">
+      <c r="I8" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="83"/>
-      <c r="L8" t="s" s="70">
+      <c r="L8" s="70" t="s">
         <v>162</v>
       </c>
       <c r="M8" s="17"/>
@@ -13174,45 +13076,45 @@
       <c r="O8" s="87">
         <v>5</v>
       </c>
-      <c r="P8" t="s" s="46">
+      <c r="P8" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" t="s" s="84">
+      <c r="R8" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>42736</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="81">
+      <c r="C9" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="75">
+      <c r="D9" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s" s="70">
+      <c r="E9" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="F9" t="s" s="70">
+      <c r="F9" s="70" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="82">
         <v>6</v>
       </c>
-      <c r="H9" t="s" s="46">
+      <c r="H9" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I9" t="s" s="81">
+      <c r="I9" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="77"/>
       <c r="K9" s="83"/>
-      <c r="L9" t="s" s="70">
+      <c r="L9" s="70" t="s">
         <v>166</v>
       </c>
       <c r="M9" s="17"/>
@@ -13220,40 +13122,40 @@
       <c r="O9" s="87">
         <v>5</v>
       </c>
-      <c r="P9" t="s" s="46">
+      <c r="P9" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" t="s" s="84">
+      <c r="R9" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row r="10" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41">
         <v>42736</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" t="s" s="81">
+      <c r="C10" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="75">
+      <c r="D10" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="E10" t="s" s="70">
+      <c r="E10" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F10" t="s" s="70">
+      <c r="F10" s="70" t="s">
         <v>169</v>
       </c>
       <c r="G10" s="82">
         <v>7</v>
       </c>
-      <c r="H10" t="s" s="46">
+      <c r="H10" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I10" t="s" s="81">
+      <c r="I10" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J10" s="77"/>
@@ -13262,47 +13164,47 @@
       <c r="M10" s="83"/>
       <c r="N10" s="77"/>
       <c r="O10" s="17"/>
-      <c r="P10" t="s" s="46">
+      <c r="P10" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" t="s" s="84">
+      <c r="R10" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" ht="14" customHeight="1">
+    <row r="11" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
         <v>42736</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" t="s" s="81">
+      <c r="C11" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="75">
+      <c r="D11" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="E11" t="s" s="70">
+      <c r="E11" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F11" t="s" s="70">
+      <c r="F11" s="70" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="82">
         <v>5</v>
       </c>
-      <c r="H11" t="s" s="46">
+      <c r="H11" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I11" t="s" s="81">
+      <c r="I11" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="J11" t="s" s="88">
+      <c r="J11" s="88" t="s">
         <v>172</v>
       </c>
       <c r="K11" s="83"/>
-      <c r="L11" t="s" s="70">
+      <c r="L11" s="70" t="s">
         <v>173</v>
       </c>
       <c r="M11" s="17"/>
@@ -13310,40 +13212,40 @@
       <c r="O11" s="87">
         <v>5</v>
       </c>
-      <c r="P11" t="s" s="46">
+      <c r="P11" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" t="s" s="84">
+      <c r="R11" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" ht="14" customHeight="1">
+    <row r="12" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41">
         <v>42736</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" t="s" s="81">
+      <c r="C12" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="75">
+      <c r="D12" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E12" t="s" s="70">
+      <c r="E12" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="F12" t="s" s="70">
+      <c r="F12" s="70" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="82">
         <v>8</v>
       </c>
-      <c r="H12" t="s" s="46">
+      <c r="H12" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I12" t="s" s="81">
+      <c r="I12" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J12" s="77"/>
@@ -13352,40 +13254,40 @@
       <c r="M12" s="83"/>
       <c r="N12" s="77"/>
       <c r="O12" s="17"/>
-      <c r="P12" t="s" s="46">
+      <c r="P12" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" t="s" s="84">
+      <c r="R12" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" ht="14" customHeight="1">
+    <row r="13" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41">
         <v>42736</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" t="s" s="81">
+      <c r="C13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s" s="75">
+      <c r="D13" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E13" t="s" s="70">
+      <c r="E13" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="F13" t="s" s="70">
+      <c r="F13" s="70" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="82">
         <v>9</v>
       </c>
-      <c r="H13" t="s" s="46">
+      <c r="H13" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I13" t="s" s="81">
+      <c r="I13" s="81" t="s">
         <v>116</v>
       </c>
       <c r="J13" s="77"/>
@@ -13394,17 +13296,17 @@
       <c r="M13" s="83"/>
       <c r="N13" s="77"/>
       <c r="O13" s="17"/>
-      <c r="P13" t="s" s="46">
+      <c r="P13" s="46" t="s">
         <v>40</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" t="s" s="84">
+      <c r="R13" s="84" t="s">
         <v>151</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" ht="14" customHeight="1">
+    <row r="14" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="3"/>
       <c r="C14" s="89"/>
@@ -13428,12 +13330,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1" location="" tooltip="" display="http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/new-bundle"/>
-    <hyperlink ref="L8" r:id="rId2" location="" tooltip="" display="http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/stitch-ccd-bundles"/>
-    <hyperlink ref="L9" r:id="rId3" location="" tooltip="" display="http://em-ccd-orchestrator-aat.service.core-compute-aat.internal/api/clone-ccd-bundles"/>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -13441,31 +13343,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.6719" style="93" customWidth="1"/>
-    <col min="4" max="4" width="27.6719" style="93" customWidth="1"/>
-    <col min="5" max="5" width="38.8516" style="93" customWidth="1"/>
-    <col min="6" max="15" width="10.6719" style="93" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="93" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" style="93" customWidth="1"/>
+    <col min="6" max="15" width="10.6640625" style="93" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -13480,124 +13382,124 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" ht="252" customHeight="1" hidden="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:15" ht="252" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F2" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G2" t="s" s="18">
+      <c r="G2" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="H2" t="s" s="18">
+      <c r="H2" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="I2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="J2" t="s" s="18">
+      <c r="J2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K2" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="L2" t="s" s="18">
+      <c r="L2" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="M2" t="s" s="18">
+      <c r="M2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="N2" t="s" s="18">
+      <c r="N2" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="O2" t="s" s="18">
+      <c r="O2" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="55">
+      <c r="C3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s" s="55">
+      <c r="D3" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="E3" t="s" s="55">
+      <c r="E3" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H3" t="s" s="21">
+      <c r="H3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="J3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="K3" t="s" s="6">
+      <c r="K3" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="L3" t="s" s="6">
+      <c r="L3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M3" t="s" s="6">
+      <c r="M3" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="N3" t="s" s="6">
+      <c r="N3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O3" t="s" s="6">
+      <c r="O3" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="56">
         <v>42736</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" t="s" s="69">
+      <c r="C4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="94">
+      <c r="D4" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s" s="95">
+      <c r="E4" s="95" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="76">
         <v>1</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>201</v>
       </c>
       <c r="H4" s="96">
         <v>1</v>
       </c>
-      <c r="I4" t="s" s="97">
+      <c r="I4" s="97" t="s">
         <v>145</v>
       </c>
       <c r="J4" s="96">
@@ -13608,35 +13510,35 @@
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="N4" t="s" s="10">
+      <c r="N4" s="10" t="s">
         <v>147</v>
       </c>
       <c r="O4" s="33"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="59">
         <v>42736</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="81">
+      <c r="C5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="98">
+      <c r="D5" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="E5" t="s" s="99">
+      <c r="E5" s="99" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="82">
         <v>2</v>
       </c>
-      <c r="G5" t="s" s="46">
+      <c r="G5" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H5" s="100">
         <v>1</v>
       </c>
-      <c r="I5" t="s" s="101">
+      <c r="I5" s="101" t="s">
         <v>145</v>
       </c>
       <c r="J5" s="100">
@@ -13647,35 +13549,35 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" t="s" s="102">
+      <c r="N5" s="102" t="s">
         <v>147</v>
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="59">
         <v>42736</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="81">
+      <c r="C6" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="98">
+      <c r="D6" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="E6" t="s" s="99">
+      <c r="E6" s="99" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="82">
         <v>3</v>
       </c>
-      <c r="G6" t="s" s="46">
+      <c r="G6" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H6" s="100">
         <v>1</v>
       </c>
-      <c r="I6" t="s" s="101">
+      <c r="I6" s="101" t="s">
         <v>145</v>
       </c>
       <c r="J6" s="100">
@@ -13686,35 +13588,35 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" t="s" s="102">
+      <c r="N6" s="102" t="s">
         <v>147</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="59">
         <v>42736</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="81">
+      <c r="C7" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="98">
+      <c r="D7" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="E7" t="s" s="99">
+      <c r="E7" s="99" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="82">
         <v>4</v>
       </c>
-      <c r="G7" t="s" s="46">
+      <c r="G7" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H7" s="100">
         <v>1</v>
       </c>
-      <c r="I7" t="s" s="101">
+      <c r="I7" s="101" t="s">
         <v>145</v>
       </c>
       <c r="J7" s="100">
@@ -13725,35 +13627,35 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" t="s" s="102">
+      <c r="N7" s="102" t="s">
         <v>147</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="59">
         <v>42736</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" t="s" s="81">
+      <c r="C8" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="103">
+      <c r="D8" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="E8" t="s" s="104">
+      <c r="E8" s="104" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="82">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="46">
+      <c r="G8" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H8" s="100">
         <v>1</v>
       </c>
-      <c r="I8" t="s" s="101">
+      <c r="I8" s="101" t="s">
         <v>145</v>
       </c>
       <c r="J8" s="100">
@@ -13764,35 +13666,35 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" t="s" s="102">
+      <c r="N8" s="102" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="59">
         <v>42736</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="81">
+      <c r="C9" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="75">
+      <c r="D9" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="E9" t="s" s="105">
+      <c r="E9" s="105" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="82">
         <v>6</v>
       </c>
-      <c r="G9" t="s" s="46">
+      <c r="G9" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H9" s="100">
         <v>1</v>
       </c>
-      <c r="I9" t="s" s="101">
+      <c r="I9" s="101" t="s">
         <v>202</v>
       </c>
       <c r="J9" s="100">
@@ -13803,35 +13705,35 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" t="s" s="102">
+      <c r="N9" s="102" t="s">
         <v>147</v>
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="59">
         <v>42736</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" t="s" s="81">
+      <c r="C10" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="94">
+      <c r="D10" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="E10" t="s" s="95">
+      <c r="E10" s="95" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="82">
         <v>1</v>
       </c>
-      <c r="G10" t="s" s="46">
+      <c r="G10" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H10" s="100">
         <v>1</v>
       </c>
-      <c r="I10" t="s" s="101">
+      <c r="I10" s="101" t="s">
         <v>203</v>
       </c>
       <c r="J10" s="100">
@@ -13845,30 +13747,30 @@
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="59">
         <v>42736</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" t="s" s="81">
+      <c r="C11" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="98">
+      <c r="D11" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E11" t="s" s="99">
+      <c r="E11" s="99" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="82">
         <v>2</v>
       </c>
-      <c r="G11" t="s" s="46">
+      <c r="G11" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H11" s="100">
         <v>1</v>
       </c>
-      <c r="I11" t="s" s="101">
+      <c r="I11" s="101" t="s">
         <v>203</v>
       </c>
       <c r="J11" s="100">
@@ -13882,30 +13784,30 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="59">
         <v>42736</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" t="s" s="81">
+      <c r="C12" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="98">
+      <c r="D12" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E12" t="s" s="99">
+      <c r="E12" s="99" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="82">
         <v>3</v>
       </c>
-      <c r="G12" t="s" s="46">
+      <c r="G12" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H12" s="100">
         <v>1</v>
       </c>
-      <c r="I12" t="s" s="101">
+      <c r="I12" s="101" t="s">
         <v>203</v>
       </c>
       <c r="J12" s="100">
@@ -13919,30 +13821,30 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59">
         <v>42736</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" t="s" s="81">
+      <c r="C13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s" s="98">
+      <c r="D13" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E13" t="s" s="99">
+      <c r="E13" s="99" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="82">
         <v>4</v>
       </c>
-      <c r="G13" t="s" s="46">
+      <c r="G13" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H13" s="100">
         <v>1</v>
       </c>
-      <c r="I13" t="s" s="101">
+      <c r="I13" s="101" t="s">
         <v>203</v>
       </c>
       <c r="J13" s="100">
@@ -13956,30 +13858,30 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="59">
         <v>42736</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" t="s" s="81">
+      <c r="C14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="103">
+      <c r="D14" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="E14" t="s" s="104">
+      <c r="E14" s="104" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="82">
         <v>5</v>
       </c>
-      <c r="G14" t="s" s="46">
+      <c r="G14" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H14" s="100">
         <v>1</v>
       </c>
-      <c r="I14" t="s" s="101">
+      <c r="I14" s="101" t="s">
         <v>203</v>
       </c>
       <c r="J14" s="100">
@@ -13993,30 +13895,30 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
+    <row r="15" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="59">
         <v>42736</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" t="s" s="81">
+      <c r="C15" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s" s="75">
+      <c r="D15" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E15" t="s" s="105">
+      <c r="E15" s="105" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="82">
         <v>6</v>
       </c>
-      <c r="G15" t="s" s="46">
+      <c r="G15" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H15" s="100">
         <v>1</v>
       </c>
-      <c r="I15" t="s" s="101">
+      <c r="I15" s="101" t="s">
         <v>202</v>
       </c>
       <c r="J15" s="100">
@@ -14030,30 +13932,30 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
+    <row r="16" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="59">
         <v>42736</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" t="s" s="81">
+      <c r="C16" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s" s="75">
+      <c r="D16" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E16" t="s" s="106">
+      <c r="E16" s="106" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="82">
         <v>1</v>
       </c>
-      <c r="G16" t="s" s="46">
+      <c r="G16" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H16" s="100">
         <v>1</v>
       </c>
-      <c r="I16" t="s" s="101">
+      <c r="I16" s="101" t="s">
         <v>204</v>
       </c>
       <c r="J16" s="100">
@@ -14067,30 +13969,30 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="59">
         <v>42736</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" t="s" s="81">
+      <c r="C17" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s" s="75">
+      <c r="D17" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="E17" t="s" s="106">
+      <c r="E17" s="106" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="82">
         <v>1</v>
       </c>
-      <c r="G17" t="s" s="46">
+      <c r="G17" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H17" s="100">
         <v>1</v>
       </c>
-      <c r="I17" t="s" s="101">
+      <c r="I17" s="101" t="s">
         <v>205</v>
       </c>
       <c r="J17" s="100">
@@ -14104,30 +14006,30 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="59">
         <v>42736</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" t="s" s="81">
+      <c r="C18" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s" s="75">
+      <c r="D18" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E18" t="s" s="106">
+      <c r="E18" s="106" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="82">
         <v>1</v>
       </c>
-      <c r="G18" t="s" s="46">
+      <c r="G18" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H18" s="100">
         <v>1</v>
       </c>
-      <c r="I18" t="s" s="101">
+      <c r="I18" s="101" t="s">
         <v>206</v>
       </c>
       <c r="J18" s="100">
@@ -14141,30 +14043,30 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
+    <row r="19" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="59">
         <v>42736</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" t="s" s="81">
+      <c r="C19" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s" s="75">
+      <c r="D19" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="E19" t="s" s="106">
+      <c r="E19" s="106" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="82">
         <v>1</v>
       </c>
-      <c r="G19" t="s" s="46">
+      <c r="G19" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H19" s="100">
         <v>1</v>
       </c>
-      <c r="I19" t="s" s="101">
+      <c r="I19" s="101" t="s">
         <v>207</v>
       </c>
       <c r="J19" s="100">
@@ -14178,30 +14080,30 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
+    <row r="20" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="59">
         <v>42736</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" t="s" s="81">
+      <c r="C20" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s" s="75">
+      <c r="D20" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="E20" t="s" s="106">
+      <c r="E20" s="106" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="82">
         <v>1</v>
       </c>
-      <c r="G20" t="s" s="46">
+      <c r="G20" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H20" s="100">
         <v>1</v>
       </c>
-      <c r="I20" t="s" s="101">
+      <c r="I20" s="101" t="s">
         <v>208</v>
       </c>
       <c r="J20" s="100">
@@ -14215,30 +14117,30 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
+    <row r="21" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="59">
         <v>42736</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" t="s" s="81">
+      <c r="C21" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="75">
+      <c r="D21" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E21" t="s" s="106">
+      <c r="E21" s="106" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="82">
         <v>1</v>
       </c>
-      <c r="G21" t="s" s="46">
+      <c r="G21" s="46" t="s">
         <v>201</v>
       </c>
       <c r="H21" s="100">
         <v>1</v>
       </c>
-      <c r="I21" t="s" s="101">
+      <c r="I21" s="101" t="s">
         <v>209</v>
       </c>
       <c r="J21" s="100">
@@ -14252,7 +14154,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" ht="13.65" customHeight="1">
+    <row r="22" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="59"/>
       <c r="B22" s="3"/>
       <c r="C22" s="89"/>
@@ -14269,7 +14171,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" ht="13.65" customHeight="1">
+    <row r="23" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="59"/>
       <c r="B23" s="3"/>
       <c r="C23" s="89"/>
@@ -14287,8 +14189,8 @@
       <c r="O23" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -14296,32 +14198,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.6719" style="109" customWidth="1"/>
-    <col min="3" max="3" width="23.3516" style="109" customWidth="1"/>
-    <col min="4" max="4" width="33.8516" style="109" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="109" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="109" customWidth="1"/>
     <col min="5" max="5" width="45" style="109" customWidth="1"/>
-    <col min="6" max="14" width="10.6719" style="109" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="109" customWidth="1"/>
+    <col min="6" max="14" width="10.6640625" style="109" customWidth="1"/>
+    <col min="15" max="256" width="8.83203125" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s" s="15">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="16"/>
@@ -14335,20 +14237,20 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="56" customHeight="1">
-      <c r="A2" t="s" s="18">
+    <row r="2" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C2" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E2" s="18" t="s">
         <v>213</v>
       </c>
       <c r="F2" s="28"/>
@@ -14361,20 +14263,20 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="110">
+    <row r="3" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="110">
+      <c r="B3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="111">
+      <c r="C3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="111">
+      <c r="D3" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="E3" t="s" s="110">
+      <c r="E3" s="110" t="s">
         <v>215</v>
       </c>
       <c r="F3" s="112"/>
@@ -14387,18 +14289,18 @@
       <c r="M3" s="113"/>
       <c r="N3" s="113"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>42736</v>
       </c>
       <c r="B4" s="114"/>
-      <c r="C4" t="s" s="70">
+      <c r="C4" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="D4" t="s" s="70">
+      <c r="D4" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="E4" t="s" s="70">
+      <c r="E4" s="70" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="17"/>
@@ -14411,18 +14313,18 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>42736</v>
       </c>
       <c r="B5" s="89"/>
-      <c r="C5" t="s" s="70">
+      <c r="C5" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s" s="70">
+      <c r="D5" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="E5" t="s" s="70">
+      <c r="E5" s="70" t="s">
         <v>220</v>
       </c>
       <c r="F5" s="17"/>
@@ -14435,18 +14337,18 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>42736</v>
       </c>
       <c r="B6" s="89"/>
-      <c r="C6" t="s" s="70">
+      <c r="C6" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s" s="115">
+      <c r="D6" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="8" t="s">
         <v>222</v>
       </c>
       <c r="F6" s="3"/>
@@ -14459,18 +14361,18 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>42736</v>
       </c>
       <c r="B7" s="89"/>
-      <c r="C7" t="s" s="70">
+      <c r="C7" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s" s="116">
+      <c r="D7" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="E7" t="s" s="46">
+      <c r="E7" s="46" t="s">
         <v>224</v>
       </c>
       <c r="F7" s="3"/>
@@ -14483,18 +14385,18 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41">
         <v>42736</v>
       </c>
       <c r="B8" s="89"/>
-      <c r="C8" t="s" s="70">
+      <c r="C8" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s" s="116">
+      <c r="D8" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="E8" t="s" s="46">
+      <c r="E8" s="46" t="s">
         <v>226</v>
       </c>
       <c r="F8" s="3"/>
@@ -14507,18 +14409,18 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>42736</v>
       </c>
       <c r="B9" s="89"/>
-      <c r="C9" t="s" s="70">
+      <c r="C9" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s" s="116">
+      <c r="D9" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="E9" t="s" s="46">
+      <c r="E9" s="46" t="s">
         <v>228</v>
       </c>
       <c r="F9" s="3"/>
@@ -14531,18 +14433,18 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41">
         <v>42736</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" t="s" s="70">
+      <c r="C10" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s" s="116">
+      <c r="D10" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="E10" t="s" s="46">
+      <c r="E10" s="46" t="s">
         <v>230</v>
       </c>
       <c r="F10" s="3"/>
@@ -14555,18 +14457,18 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
         <v>42736</v>
       </c>
       <c r="B11" s="89"/>
-      <c r="C11" t="s" s="70">
+      <c r="C11" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s" s="116">
+      <c r="D11" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="E11" t="s" s="46">
+      <c r="E11" s="46" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="3"/>
@@ -14579,18 +14481,18 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41">
         <v>42736</v>
       </c>
       <c r="B12" s="89"/>
-      <c r="C12" t="s" s="70">
+      <c r="C12" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s" s="116">
+      <c r="D12" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="E12" t="s" s="46">
+      <c r="E12" s="46" t="s">
         <v>234</v>
       </c>
       <c r="F12" s="3"/>
@@ -14603,18 +14505,18 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41">
         <v>42736</v>
       </c>
       <c r="B13" s="89"/>
-      <c r="C13" t="s" s="70">
+      <c r="C13" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s" s="116">
+      <c r="D13" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="E13" t="s" s="46">
+      <c r="E13" s="46" t="s">
         <v>236</v>
       </c>
       <c r="F13" s="3"/>
@@ -14627,18 +14529,18 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>42736</v>
       </c>
       <c r="B14" s="89"/>
-      <c r="C14" t="s" s="70">
+      <c r="C14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s" s="116">
+      <c r="D14" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="E14" t="s" s="46">
+      <c r="E14" s="46" t="s">
         <v>238</v>
       </c>
       <c r="F14" s="3"/>
@@ -14651,18 +14553,18 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
+    <row r="15" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41">
         <v>42736</v>
       </c>
       <c r="B15" s="89"/>
-      <c r="C15" t="s" s="70">
+      <c r="C15" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s" s="116">
+      <c r="D15" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="E15" t="s" s="46">
+      <c r="E15" s="46" t="s">
         <v>240</v>
       </c>
       <c r="F15" s="3"/>
@@ -14675,18 +14577,18 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
+    <row r="16" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41">
         <v>42736</v>
       </c>
       <c r="B16" s="89"/>
-      <c r="C16" t="s" s="70">
+      <c r="C16" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s" s="116">
+      <c r="D16" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="E16" t="s" s="46">
+      <c r="E16" s="46" t="s">
         <v>242</v>
       </c>
       <c r="F16" s="3"/>
@@ -14699,18 +14601,18 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41">
         <v>42736</v>
       </c>
       <c r="B17" s="89"/>
-      <c r="C17" t="s" s="70">
+      <c r="C17" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s" s="116">
+      <c r="D17" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="E17" t="s" s="46">
+      <c r="E17" s="46" t="s">
         <v>244</v>
       </c>
       <c r="F17" s="3"/>
@@ -14723,7 +14625,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="3"/>
       <c r="C18" s="33"/>
@@ -14740,8 +14642,8 @@
       <c r="N18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def_aat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yogeshhullatti/Documents/Solirius/rpa-em-ccd-orchestrator/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A04FC-2791-7F45-B30D-89A7CA2883CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C24865-EB24-AB45-B865-EC3BC280853C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="32060" windowHeight="17840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="2420" windowWidth="32060" windowHeight="17840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="353">
   <si>
     <t>Change History</t>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t>documentName</t>
+  </si>
+  <si>
+    <t>Document name</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2134,11 +2137,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2478,6 +2556,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3751,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:IV34"/>
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="FB1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4618,59 +4702,59 @@
       <c r="L30" s="139"/>
       <c r="M30" s="140"/>
     </row>
-    <row r="31" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="141">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143" t="s">
+    <row r="31" spans="1:13" s="214" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="215">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="216"/>
+      <c r="C31" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="217" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="217" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="218" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="219"/>
+      <c r="M31" s="220"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="141">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="143" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="142"/>
-      <c r="G31" s="143" t="s">
+      <c r="F32" s="142"/>
+      <c r="G32" s="143" t="s">
         <v>300</v>
       </c>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="144" t="s">
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="145"/>
-      <c r="M31" s="146"/>
-    </row>
-    <row r="32" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="124">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="146"/>
     </row>
     <row r="33" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="124">
@@ -4681,14 +4765,14 @@
         <v>82</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="46" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -4700,31 +4784,58 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="125">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="121" t="s">
+      <c r="A34" s="124">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="121" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="121" t="s">
-        <v>306</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="122" t="s">
+      <c r="D34" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="81" t="s">
         <v>40</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="125">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="121" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -7423,7 +7534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
